--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DD7BD-A07A-4AB7-849E-6BA3A0320430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E26E9-A2A3-4BDE-B7DA-27AC667A2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="702">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4114,7 +4114,7 @@
     <numFmt numFmtId="170" formatCode="0E+00"/>
     <numFmt numFmtId="171" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5795,6 +5795,12 @@
     <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5806,12 +5812,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -19580,9 +19580,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -19620,9 +19620,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19655,26 +19655,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19707,26 +19690,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19907,7 +19873,7 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="21.7109375" style="323" customWidth="1"/>
     <col min="5" max="6" width="14.140625" style="323" customWidth="1"/>
@@ -19921,7 +19887,7 @@
     <col min="16" max="16384" width="8.85546875" style="323"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="321"/>
       <c r="B1" s="321"/>
       <c r="C1" s="321"/>
@@ -19949,7 +19915,7 @@
       <c r="Y1" s="322"/>
       <c r="Z1" s="322"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="321"/>
       <c r="B2" s="321"/>
       <c r="C2" s="321"/>
@@ -19977,7 +19943,7 @@
       <c r="Y2" s="322"/>
       <c r="Z2" s="322"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="321"/>
       <c r="B3" s="321"/>
       <c r="C3" s="321"/>
@@ -20005,7 +19971,7 @@
       <c r="Y3" s="322"/>
       <c r="Z3" s="322"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="321"/>
       <c r="B4" s="321"/>
       <c r="C4" s="321"/>
@@ -20033,7 +19999,7 @@
       <c r="Y4" s="322"/>
       <c r="Z4" s="322"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="321"/>
       <c r="B5" s="321"/>
       <c r="C5" s="321"/>
@@ -20061,7 +20027,7 @@
       <c r="Y5" s="322"/>
       <c r="Z5" s="322"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="321"/>
       <c r="B6" s="321"/>
       <c r="C6" s="321"/>
@@ -20089,7 +20055,7 @@
       <c r="Y6" s="322"/>
       <c r="Z6" s="322"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="321"/>
       <c r="B7" s="321"/>
       <c r="C7" s="321"/>
@@ -20117,7 +20083,7 @@
       <c r="Y7" s="322"/>
       <c r="Z7" s="322"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="321"/>
       <c r="B8" s="321"/>
       <c r="C8" s="321"/>
@@ -20145,7 +20111,7 @@
       <c r="Y8" s="322"/>
       <c r="Z8" s="322"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="321"/>
       <c r="B9" s="321"/>
       <c r="C9" s="321"/>
@@ -20173,7 +20139,7 @@
       <c r="Y9" s="322"/>
       <c r="Z9" s="322"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="321"/>
       <c r="B10" s="321"/>
       <c r="C10" s="321"/>
@@ -20201,7 +20167,7 @@
       <c r="Y10" s="322"/>
       <c r="Z10" s="322"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="321"/>
       <c r="B11" s="321"/>
       <c r="C11" s="321"/>
@@ -20229,7 +20195,7 @@
       <c r="Y11" s="322"/>
       <c r="Z11" s="322"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="321"/>
       <c r="B12" s="321"/>
       <c r="C12" s="321"/>
@@ -20257,7 +20223,7 @@
       <c r="Y12" s="322"/>
       <c r="Z12" s="322"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="321"/>
       <c r="B13" s="321"/>
       <c r="C13" s="321"/>
@@ -20285,7 +20251,7 @@
       <c r="Y13" s="322"/>
       <c r="Z13" s="322"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="321"/>
       <c r="B14" s="321"/>
       <c r="C14" s="321"/>
@@ -20313,7 +20279,7 @@
       <c r="Y14" s="322"/>
       <c r="Z14" s="322"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="321"/>
       <c r="B15" s="321"/>
       <c r="C15" s="321"/>
@@ -20341,13 +20307,13 @@
       <c r="Y15" s="322"/>
       <c r="Z15" s="322"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
+      <c r="A16" s="340" t="s">
         <v>684</v>
       </c>
-      <c r="B16" s="338"/>
-      <c r="C16" s="338"/>
-      <c r="D16" s="338"/>
+      <c r="B16" s="340"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
       <c r="E16" s="324"/>
       <c r="F16" s="324"/>
       <c r="G16" s="325"/>
@@ -20371,7 +20337,7 @@
       <c r="Y16" s="322"/>
       <c r="Z16" s="322"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
       <c r="A17" s="326"/>
       <c r="B17" s="326"/>
       <c r="C17" s="326"/>
@@ -20399,7 +20365,7 @@
       <c r="Y17" s="322"/>
       <c r="Z17" s="322"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
       <c r="A18" s="326"/>
       <c r="B18" s="326"/>
       <c r="C18" s="326"/>
@@ -20427,15 +20393,15 @@
       <c r="Y18" s="322"/>
       <c r="Z18" s="322"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="329" t="s">
         <v>685</v>
       </c>
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="339" t="s">
         <v>696</v>
       </c>
-      <c r="C19" s="337"/>
-      <c r="D19" s="337"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
       <c r="E19" s="330"/>
       <c r="F19" s="330"/>
       <c r="G19" s="331"/>
@@ -20459,15 +20425,15 @@
       <c r="Y19" s="322"/>
       <c r="Z19" s="322"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="329" t="s">
         <v>686</v>
       </c>
-      <c r="B20" s="337" t="s">
+      <c r="B20" s="339" t="s">
         <v>697</v>
       </c>
-      <c r="C20" s="337"/>
-      <c r="D20" s="337"/>
+      <c r="C20" s="339"/>
+      <c r="D20" s="339"/>
       <c r="E20" s="330"/>
       <c r="F20" s="330"/>
       <c r="G20" s="331"/>
@@ -20491,7 +20457,7 @@
       <c r="Y20" s="322"/>
       <c r="Z20" s="322"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="329" t="s">
         <v>687</v>
       </c>
@@ -20523,7 +20489,7 @@
       <c r="Y21" s="322"/>
       <c r="Z21" s="322"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
       <c r="A22" s="329"/>
       <c r="B22" s="332"/>
       <c r="C22" s="332"/>
@@ -20551,15 +20517,15 @@
       <c r="Y22" s="322"/>
       <c r="Z22" s="322"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="329" t="s">
         <v>688</v>
       </c>
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="339" t="s">
         <v>699</v>
       </c>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
+      <c r="C23" s="339"/>
+      <c r="D23" s="339"/>
       <c r="E23" s="322"/>
       <c r="F23" s="322"/>
       <c r="G23" s="322"/>
@@ -20583,7 +20549,7 @@
       <c r="Y23" s="322"/>
       <c r="Z23" s="322"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="329"/>
       <c r="B24" s="332"/>
       <c r="C24" s="332"/>
@@ -20611,7 +20577,7 @@
       <c r="Y24" s="322"/>
       <c r="Z24" s="322"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="329"/>
       <c r="B25" s="332"/>
       <c r="C25" s="332"/>
@@ -20639,15 +20605,15 @@
       <c r="Y25" s="322"/>
       <c r="Z25" s="322"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="329" t="s">
         <v>689</v>
       </c>
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="339" t="s">
         <v>700</v>
       </c>
-      <c r="C26" s="337"/>
-      <c r="D26" s="337"/>
+      <c r="C26" s="339"/>
+      <c r="D26" s="339"/>
       <c r="E26" s="322"/>
       <c r="F26" s="322"/>
       <c r="G26" s="322"/>
@@ -20671,7 +20637,7 @@
       <c r="Y26" s="322"/>
       <c r="Z26" s="322"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="329"/>
       <c r="B27" s="332"/>
       <c r="C27" s="332"/>
@@ -20699,7 +20665,7 @@
       <c r="Y27" s="322"/>
       <c r="Z27" s="322"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
       <c r="A28" s="329"/>
       <c r="B28" s="332"/>
       <c r="C28" s="332"/>
@@ -20727,7 +20693,7 @@
       <c r="Y28" s="322"/>
       <c r="Z28" s="322"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="329" t="s">
         <v>690</v>
       </c>
@@ -20759,15 +20725,15 @@
       <c r="Y29" s="322"/>
       <c r="Z29" s="322"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="329" t="s">
         <v>691</v>
       </c>
-      <c r="B30" s="339" t="s">
+      <c r="B30" s="341" t="s">
         <v>692</v>
       </c>
-      <c r="C30" s="337"/>
-      <c r="D30" s="337"/>
+      <c r="C30" s="339"/>
+      <c r="D30" s="339"/>
       <c r="E30" s="334"/>
       <c r="F30" s="334"/>
       <c r="G30" s="322"/>
@@ -20791,15 +20757,15 @@
       <c r="Y30" s="322"/>
       <c r="Z30" s="322"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="329" t="s">
         <v>693</v>
       </c>
-      <c r="B31" s="337" t="s">
+      <c r="B31" s="339" t="s">
         <v>694</v>
       </c>
-      <c r="C31" s="337"/>
-      <c r="D31" s="337"/>
+      <c r="C31" s="339"/>
+      <c r="D31" s="339"/>
       <c r="E31" s="334"/>
       <c r="F31" s="334"/>
       <c r="G31" s="322"/>
@@ -20823,7 +20789,7 @@
       <c r="Y31" s="322"/>
       <c r="Z31" s="322"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="335"/>
       <c r="B32" s="336" t="s">
         <v>695</v>
@@ -20853,7 +20819,7 @@
       <c r="Y32" s="322"/>
       <c r="Z32" s="322"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" s="321"/>
       <c r="B33" s="321"/>
       <c r="C33" s="321"/>
@@ -20881,7 +20847,7 @@
       <c r="Y33" s="322"/>
       <c r="Z33" s="322"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="321"/>
       <c r="B34" s="321"/>
       <c r="C34" s="321"/>
@@ -20909,7 +20875,7 @@
       <c r="Y34" s="322"/>
       <c r="Z34" s="322"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="321"/>
       <c r="B35" s="321"/>
       <c r="C35" s="321"/>
@@ -20937,7 +20903,7 @@
       <c r="Y35" s="322"/>
       <c r="Z35" s="322"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="321"/>
       <c r="B36" s="321"/>
       <c r="C36" s="321"/>
@@ -20965,7 +20931,7 @@
       <c r="Y36" s="322"/>
       <c r="Z36" s="322"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" s="321"/>
       <c r="B37" s="321"/>
       <c r="C37" s="321"/>
@@ -20993,7 +20959,7 @@
       <c r="Y37" s="322"/>
       <c r="Z37" s="322"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="321"/>
       <c r="B38" s="321"/>
       <c r="C38" s="321"/>
@@ -21021,7 +20987,7 @@
       <c r="Y38" s="322"/>
       <c r="Z38" s="322"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="321"/>
       <c r="B39" s="321"/>
       <c r="C39" s="321"/>
@@ -21049,7 +21015,7 @@
       <c r="Y39" s="322"/>
       <c r="Z39" s="322"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="321"/>
       <c r="B40" s="321"/>
       <c r="C40" s="321"/>
@@ -21077,7 +21043,7 @@
       <c r="Y40" s="322"/>
       <c r="Z40" s="322"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="321"/>
       <c r="B41" s="321"/>
       <c r="C41" s="321"/>
@@ -21105,7 +21071,7 @@
       <c r="Y41" s="322"/>
       <c r="Z41" s="322"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="321"/>
       <c r="B42" s="321"/>
       <c r="C42" s="321"/>
@@ -21133,7 +21099,7 @@
       <c r="Y42" s="322"/>
       <c r="Z42" s="322"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="322"/>
       <c r="B43" s="322"/>
       <c r="C43" s="322"/>
@@ -21161,7 +21127,7 @@
       <c r="Y43" s="322"/>
       <c r="Z43" s="322"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="322"/>
       <c r="B44" s="322"/>
       <c r="C44" s="322"/>
@@ -21189,7 +21155,7 @@
       <c r="Y44" s="322"/>
       <c r="Z44" s="322"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="322"/>
       <c r="B45" s="322"/>
       <c r="C45" s="322"/>
@@ -21217,7 +21183,7 @@
       <c r="Y45" s="322"/>
       <c r="Z45" s="322"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="322"/>
       <c r="B46" s="322"/>
       <c r="C46" s="322"/>
@@ -21245,7 +21211,7 @@
       <c r="Y46" s="322"/>
       <c r="Z46" s="322"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="322"/>
       <c r="B47" s="322"/>
       <c r="C47" s="322"/>
@@ -21273,7 +21239,7 @@
       <c r="Y47" s="322"/>
       <c r="Z47" s="322"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="322"/>
       <c r="B48" s="322"/>
       <c r="C48" s="322"/>
@@ -21301,7 +21267,7 @@
       <c r="Y48" s="322"/>
       <c r="Z48" s="322"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="322"/>
       <c r="B49" s="322"/>
       <c r="C49" s="322"/>
@@ -21329,7 +21295,7 @@
       <c r="Y49" s="322"/>
       <c r="Z49" s="322"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="322"/>
       <c r="B50" s="322"/>
       <c r="C50" s="322"/>
@@ -21357,7 +21323,7 @@
       <c r="Y50" s="322"/>
       <c r="Z50" s="322"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="322"/>
       <c r="B51" s="322"/>
       <c r="C51" s="322"/>
@@ -21385,7 +21351,7 @@
       <c r="Y51" s="322"/>
       <c r="Z51" s="322"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="322"/>
       <c r="B52" s="322"/>
       <c r="C52" s="322"/>
@@ -21413,7 +21379,7 @@
       <c r="Y52" s="322"/>
       <c r="Z52" s="322"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="322"/>
       <c r="B53" s="322"/>
       <c r="C53" s="322"/>
@@ -21441,7 +21407,7 @@
       <c r="Y53" s="322"/>
       <c r="Z53" s="322"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="322"/>
       <c r="B54" s="322"/>
       <c r="C54" s="322"/>
@@ -21469,7 +21435,7 @@
       <c r="Y54" s="322"/>
       <c r="Z54" s="322"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="322"/>
       <c r="B55" s="322"/>
       <c r="C55" s="322"/>
@@ -21497,7 +21463,7 @@
       <c r="Y55" s="322"/>
       <c r="Z55" s="322"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="322"/>
       <c r="B56" s="322"/>
       <c r="C56" s="322"/>
@@ -21525,7 +21491,7 @@
       <c r="Y56" s="322"/>
       <c r="Z56" s="322"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="322"/>
       <c r="B57" s="322"/>
       <c r="C57" s="322"/>
@@ -21553,7 +21519,7 @@
       <c r="Y57" s="322"/>
       <c r="Z57" s="322"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="322"/>
       <c r="B58" s="322"/>
       <c r="C58" s="322"/>
@@ -21581,7 +21547,7 @@
       <c r="Y58" s="322"/>
       <c r="Z58" s="322"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="322"/>
       <c r="B59" s="322"/>
       <c r="C59" s="322"/>
@@ -21609,7 +21575,7 @@
       <c r="Y59" s="322"/>
       <c r="Z59" s="322"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="322"/>
       <c r="B60" s="322"/>
       <c r="C60" s="322"/>
@@ -21637,7 +21603,7 @@
       <c r="Y60" s="322"/>
       <c r="Z60" s="322"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="322"/>
       <c r="B61" s="322"/>
       <c r="C61" s="322"/>
@@ -21665,7 +21631,7 @@
       <c r="Y61" s="322"/>
       <c r="Z61" s="322"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="322"/>
       <c r="B62" s="322"/>
       <c r="C62" s="322"/>
@@ -21693,7 +21659,7 @@
       <c r="Y62" s="322"/>
       <c r="Z62" s="322"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="322"/>
       <c r="B63" s="322"/>
       <c r="C63" s="322"/>
@@ -21721,7 +21687,7 @@
       <c r="Y63" s="322"/>
       <c r="Z63" s="322"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="322"/>
       <c r="B64" s="322"/>
       <c r="C64" s="322"/>
@@ -21749,7 +21715,7 @@
       <c r="Y64" s="322"/>
       <c r="Z64" s="322"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="322"/>
       <c r="B65" s="322"/>
       <c r="C65" s="322"/>
@@ -21777,7 +21743,7 @@
       <c r="Y65" s="322"/>
       <c r="Z65" s="322"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="322"/>
       <c r="B66" s="322"/>
       <c r="C66" s="322"/>
@@ -21805,7 +21771,7 @@
       <c r="Y66" s="322"/>
       <c r="Z66" s="322"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="322"/>
       <c r="B67" s="322"/>
       <c r="C67" s="322"/>
@@ -21833,7 +21799,7 @@
       <c r="Y67" s="322"/>
       <c r="Z67" s="322"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="322"/>
       <c r="B68" s="322"/>
       <c r="C68" s="322"/>
@@ -21861,7 +21827,7 @@
       <c r="Y68" s="322"/>
       <c r="Z68" s="322"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="322"/>
       <c r="B69" s="322"/>
       <c r="C69" s="322"/>
@@ -21889,7 +21855,7 @@
       <c r="Y69" s="322"/>
       <c r="Z69" s="322"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="322"/>
       <c r="B70" s="322"/>
       <c r="C70" s="322"/>
@@ -21917,7 +21883,7 @@
       <c r="Y70" s="322"/>
       <c r="Z70" s="322"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="322"/>
       <c r="B71" s="322"/>
       <c r="C71" s="322"/>
@@ -21945,7 +21911,7 @@
       <c r="Y71" s="322"/>
       <c r="Z71" s="322"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="322"/>
       <c r="B72" s="322"/>
       <c r="C72" s="322"/>
@@ -21973,7 +21939,7 @@
       <c r="Y72" s="322"/>
       <c r="Z72" s="322"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="322"/>
       <c r="B73" s="322"/>
       <c r="C73" s="322"/>
@@ -22001,7 +21967,7 @@
       <c r="Y73" s="322"/>
       <c r="Z73" s="322"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="322"/>
       <c r="B74" s="322"/>
       <c r="C74" s="322"/>
@@ -22029,7 +21995,7 @@
       <c r="Y74" s="322"/>
       <c r="Z74" s="322"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="322"/>
       <c r="B75" s="322"/>
       <c r="C75" s="322"/>
@@ -22057,7 +22023,7 @@
       <c r="Y75" s="322"/>
       <c r="Z75" s="322"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="322"/>
       <c r="B76" s="322"/>
       <c r="C76" s="322"/>
@@ -22085,7 +22051,7 @@
       <c r="Y76" s="322"/>
       <c r="Z76" s="322"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="322"/>
       <c r="B77" s="322"/>
       <c r="C77" s="322"/>
@@ -22113,7 +22079,7 @@
       <c r="Y77" s="322"/>
       <c r="Z77" s="322"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="322"/>
       <c r="B78" s="322"/>
       <c r="C78" s="322"/>
@@ -22141,7 +22107,7 @@
       <c r="Y78" s="322"/>
       <c r="Z78" s="322"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="322"/>
       <c r="B79" s="322"/>
       <c r="C79" s="322"/>
@@ -22169,7 +22135,7 @@
       <c r="Y79" s="322"/>
       <c r="Z79" s="322"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="322"/>
       <c r="B80" s="322"/>
       <c r="C80" s="322"/>
@@ -22197,7 +22163,7 @@
       <c r="Y80" s="322"/>
       <c r="Z80" s="322"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="322"/>
       <c r="B81" s="322"/>
       <c r="C81" s="322"/>
@@ -22225,7 +22191,7 @@
       <c r="Y81" s="322"/>
       <c r="Z81" s="322"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="322"/>
       <c r="B82" s="322"/>
       <c r="C82" s="322"/>
@@ -22253,7 +22219,7 @@
       <c r="Y82" s="322"/>
       <c r="Z82" s="322"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="322"/>
       <c r="B83" s="322"/>
       <c r="C83" s="322"/>
@@ -22281,7 +22247,7 @@
       <c r="Y83" s="322"/>
       <c r="Z83" s="322"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="322"/>
       <c r="B84" s="322"/>
       <c r="C84" s="322"/>
@@ -22309,7 +22275,7 @@
       <c r="Y84" s="322"/>
       <c r="Z84" s="322"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="322"/>
       <c r="B85" s="322"/>
       <c r="C85" s="322"/>
@@ -22337,7 +22303,7 @@
       <c r="Y85" s="322"/>
       <c r="Z85" s="322"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="322"/>
       <c r="B86" s="322"/>
       <c r="C86" s="322"/>
@@ -22365,7 +22331,7 @@
       <c r="Y86" s="322"/>
       <c r="Z86" s="322"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="322"/>
       <c r="B87" s="322"/>
       <c r="C87" s="322"/>
@@ -22393,7 +22359,7 @@
       <c r="Y87" s="322"/>
       <c r="Z87" s="322"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="322"/>
       <c r="B88" s="322"/>
       <c r="C88" s="322"/>
@@ -22421,7 +22387,7 @@
       <c r="Y88" s="322"/>
       <c r="Z88" s="322"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="322"/>
       <c r="B89" s="322"/>
       <c r="C89" s="322"/>
@@ -22449,7 +22415,7 @@
       <c r="Y89" s="322"/>
       <c r="Z89" s="322"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="322"/>
       <c r="B90" s="322"/>
       <c r="C90" s="322"/>
@@ -22477,7 +22443,7 @@
       <c r="Y90" s="322"/>
       <c r="Z90" s="322"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="322"/>
       <c r="B91" s="322"/>
       <c r="C91" s="322"/>
@@ -22505,7 +22471,7 @@
       <c r="Y91" s="322"/>
       <c r="Z91" s="322"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="322"/>
       <c r="B92" s="322"/>
       <c r="C92" s="322"/>
@@ -22533,7 +22499,7 @@
       <c r="Y92" s="322"/>
       <c r="Z92" s="322"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="322"/>
       <c r="B93" s="322"/>
       <c r="C93" s="322"/>
@@ -22561,7 +22527,7 @@
       <c r="Y93" s="322"/>
       <c r="Z93" s="322"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="322"/>
       <c r="B94" s="322"/>
       <c r="C94" s="322"/>
@@ -22589,7 +22555,7 @@
       <c r="Y94" s="322"/>
       <c r="Z94" s="322"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="322"/>
       <c r="B95" s="322"/>
       <c r="C95" s="322"/>
@@ -22617,7 +22583,7 @@
       <c r="Y95" s="322"/>
       <c r="Z95" s="322"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="322"/>
       <c r="B96" s="322"/>
       <c r="C96" s="322"/>
@@ -22645,7 +22611,7 @@
       <c r="Y96" s="322"/>
       <c r="Z96" s="322"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="322"/>
       <c r="B97" s="322"/>
       <c r="C97" s="322"/>
@@ -22673,7 +22639,7 @@
       <c r="Y97" s="322"/>
       <c r="Z97" s="322"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="322"/>
       <c r="B98" s="322"/>
       <c r="C98" s="322"/>
@@ -22701,7 +22667,7 @@
       <c r="Y98" s="322"/>
       <c r="Z98" s="322"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="322"/>
       <c r="B99" s="322"/>
       <c r="C99" s="322"/>
@@ -22760,7 +22726,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -22778,13 +22744,13 @@
     <col min="34" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:34">
       <c r="F3" s="3" t="s">
         <v>701</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:34" ht="25.5">
       <c r="B4" s="243" t="s">
         <v>681</v>
       </c>
@@ -22864,7 +22830,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" ht="26.25" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>682</v>
       </c>
@@ -22939,7 +22905,7 @@
       <c r="AG5" s="189"/>
       <c r="AH5" s="189"/>
     </row>
-    <row r="6" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:34" ht="15">
       <c r="B6" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23022,7 +22988,7 @@
         <v>7.6960970220830899E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:34">
       <c r="B7" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23049,7 +23015,7 @@
       </c>
       <c r="P7" s="161"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:34">
       <c r="B8" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23063,7 +23029,7 @@
       </c>
       <c r="P8" s="161"/>
     </row>
-    <row r="9" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:34" ht="15">
       <c r="B9" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23147,7 +23113,7 @@
         <v>7.6960970220830899E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:34">
       <c r="B10" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23175,7 +23141,7 @@
       <c r="L10" s="151"/>
       <c r="P10" s="161"/>
     </row>
-    <row r="11" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:34" ht="15">
       <c r="B11" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23204,7 +23170,7 @@
       <c r="Z11" s="54"/>
       <c r="AA11" s="54"/>
     </row>
-    <row r="12" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34" ht="15">
       <c r="B12" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23289,7 +23255,7 @@
         <v>7.6960970220830899E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:34" ht="15">
       <c r="B13" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23331,7 +23297,7 @@
       <c r="Z13" s="54"/>
       <c r="AA13" s="54"/>
     </row>
-    <row r="14" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:34" ht="15">
       <c r="B14" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23360,7 +23326,7 @@
       <c r="Z14" s="54"/>
       <c r="AA14" s="54"/>
     </row>
-    <row r="15" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:34" ht="15">
       <c r="B15" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23444,7 +23410,7 @@
         <v>3.2553977848681727E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="15">
       <c r="B16" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23474,7 +23440,7 @@
       <c r="O16" s="263"/>
       <c r="P16" s="161"/>
     </row>
-    <row r="17" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" ht="15">
       <c r="B17" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23506,7 +23472,7 @@
       <c r="Z17" s="54"/>
       <c r="AA17" s="54"/>
     </row>
-    <row r="18" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" ht="15">
       <c r="B18" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23592,7 +23558,7 @@
         <v>3.2553977848681727E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" ht="15">
       <c r="B19" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23623,7 +23589,7 @@
       <c r="O19" s="263"/>
       <c r="P19" s="161"/>
     </row>
-    <row r="20" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="15">
       <c r="B20" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23655,7 +23621,7 @@
       <c r="Z20" s="54"/>
       <c r="AA20" s="54"/>
     </row>
-    <row r="21" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="15">
       <c r="B21" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23741,7 +23707,7 @@
         <v>3.2553977848681727E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="15">
       <c r="B22" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23771,7 +23737,7 @@
       <c r="O22" s="263"/>
       <c r="P22" s="161"/>
     </row>
-    <row r="23" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" ht="15">
       <c r="B23" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23802,7 +23768,7 @@
       <c r="Z23" s="54"/>
       <c r="AA23" s="54"/>
     </row>
-    <row r="24" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" ht="15">
       <c r="B24" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23889,7 +23855,7 @@
         <v>3.0693750543042787E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" ht="15">
       <c r="B25" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23921,7 +23887,7 @@
       <c r="O25" s="263"/>
       <c r="P25" s="161"/>
     </row>
-    <row r="26" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" ht="15">
       <c r="B26" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -23953,7 +23919,7 @@
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
     </row>
-    <row r="27" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" ht="15">
       <c r="B27" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24039,7 +24005,7 @@
         <v>3.0693750543042787E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="15">
       <c r="B28" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24070,7 +24036,7 @@
       <c r="O28" s="263"/>
       <c r="P28" s="161"/>
     </row>
-    <row r="29" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" ht="15">
       <c r="B29" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24102,7 +24068,7 @@
       <c r="Z29" s="54"/>
       <c r="AA29" s="54"/>
     </row>
-    <row r="30" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" ht="15">
       <c r="B30" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24189,7 +24155,7 @@
         <v>3.0693750543042787E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" ht="15">
       <c r="B31" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24221,7 +24187,7 @@
       <c r="O31" s="263"/>
       <c r="P31" s="161"/>
     </row>
-    <row r="32" spans="2:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" ht="15">
       <c r="B32" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24252,7 +24218,7 @@
       <c r="Z32" s="54"/>
       <c r="AA32" s="54"/>
     </row>
-    <row r="33" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" ht="15">
       <c r="B33" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24338,7 +24304,7 @@
         <v>1.625946644409507E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31">
       <c r="B34" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24366,7 +24332,7 @@
       <c r="L34" s="159"/>
       <c r="P34" s="161"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:31">
       <c r="B35" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24381,7 +24347,7 @@
       </c>
       <c r="P35" s="161"/>
     </row>
-    <row r="36" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:31" ht="15">
       <c r="B36" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24466,7 +24432,7 @@
         <v>1.625946644409507E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31">
       <c r="B37" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24495,7 +24461,7 @@
       <c r="L37" s="161"/>
       <c r="P37" s="161"/>
     </row>
-    <row r="38" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" ht="15">
       <c r="B38" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24528,7 +24494,7 @@
       <c r="Z38" s="54"/>
       <c r="AA38" s="54"/>
     </row>
-    <row r="39" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" ht="15">
       <c r="B39" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24615,7 +24581,7 @@
         <v>1.625946644409507E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" ht="15">
       <c r="B40" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24658,7 +24624,7 @@
       <c r="Z40" s="54"/>
       <c r="AA40" s="54"/>
     </row>
-    <row r="41" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" ht="15">
       <c r="B41" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24691,7 +24657,7 @@
       <c r="Z41" s="54"/>
       <c r="AA41" s="54"/>
     </row>
-    <row r="42" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" ht="15">
       <c r="B42" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24777,7 +24743,7 @@
       </c>
       <c r="AB42" s="190"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31">
       <c r="B43" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24805,7 +24771,7 @@
       <c r="AD43" s="54"/>
       <c r="AE43" s="54"/>
     </row>
-    <row r="44" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" ht="15">
       <c r="B44" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24822,7 +24788,7 @@
       <c r="AD44" s="190"/>
       <c r="AE44" s="54"/>
     </row>
-    <row r="45" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" ht="15">
       <c r="B45" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24910,7 +24876,7 @@
       <c r="AD45" s="190"/>
       <c r="AE45" s="54"/>
     </row>
-    <row r="46" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" ht="15">
       <c r="B46" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24953,7 +24919,7 @@
       <c r="AD46" s="190"/>
       <c r="AE46" s="54"/>
     </row>
-    <row r="47" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" ht="15">
       <c r="B47" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -24982,7 +24948,7 @@
       <c r="AD47" s="190"/>
       <c r="AE47" s="54"/>
     </row>
-    <row r="48" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" ht="15">
       <c r="B48" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25070,7 +25036,7 @@
       <c r="AD48" s="190"/>
       <c r="AE48" s="54"/>
     </row>
-    <row r="49" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:31" ht="15">
       <c r="B49" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25113,7 +25079,7 @@
       <c r="AD49" s="190"/>
       <c r="AE49" s="54"/>
     </row>
-    <row r="50" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" ht="15">
       <c r="B50" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25142,7 +25108,7 @@
       <c r="AD50" s="190"/>
       <c r="AE50" s="54"/>
     </row>
-    <row r="51" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" ht="15">
       <c r="B51" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25202,7 +25168,7 @@
       <c r="AD51" s="190"/>
       <c r="AE51" s="54"/>
     </row>
-    <row r="52" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" ht="15">
       <c r="B52" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25262,7 +25228,7 @@
       <c r="AD52" s="190"/>
       <c r="AE52" s="54"/>
     </row>
-    <row r="53" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" ht="15">
       <c r="B53" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25322,7 +25288,7 @@
       <c r="AD53" s="190"/>
       <c r="AE53" s="54"/>
     </row>
-    <row r="54" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" ht="15">
       <c r="B54" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25362,7 +25328,7 @@
       <c r="Z54" s="267"/>
       <c r="AA54" s="267"/>
     </row>
-    <row r="55" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:31" ht="15">
       <c r="I55" s="161"/>
       <c r="J55" s="161"/>
       <c r="K55" s="161"/>
@@ -25382,7 +25348,7 @@
       <c r="AD55" s="54"/>
       <c r="AE55" s="54"/>
     </row>
-    <row r="56" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31" ht="15">
       <c r="H56" s="59">
         <f>('BIO-Techs'!N13+'BIO-Techs'!R13)/'BIO-Techs'!$M13</f>
         <v>2.6107223116514779E-2</v>
@@ -25404,7 +25370,7 @@
       <c r="AD56" s="54"/>
       <c r="AE56" s="54"/>
     </row>
-    <row r="57" spans="2:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:31" ht="15">
       <c r="I57" s="159"/>
       <c r="J57" s="159"/>
       <c r="K57" s="159"/>
@@ -25415,7 +25381,7 @@
       <c r="AD57" s="190"/>
       <c r="AE57" s="54"/>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:31">
       <c r="P58" s="54"/>
       <c r="Q58" s="54"/>
       <c r="R58" s="54"/>
@@ -25431,7 +25397,7 @@
       <c r="AB58" s="54"/>
       <c r="AC58" s="54"/>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:31">
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
@@ -25445,7 +25411,7 @@
       <c r="Z59" s="54"/>
       <c r="AA59" s="54"/>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:31">
       <c r="G60" s="273">
         <f>'BIO-Techs'!M19</f>
         <v>187.59619588744587</v>
@@ -25455,26 +25421,26 @@
         <v>187.59619588744587</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:31">
       <c r="I61" s="159"/>
       <c r="J61" s="159"/>
       <c r="K61" s="159"/>
     </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:12">
       <c r="H69" s="159"/>
       <c r="I69" s="159"/>
       <c r="J69" s="159"/>
       <c r="K69" s="159"/>
       <c r="L69" s="159"/>
     </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:12">
       <c r="H70" s="159"/>
       <c r="I70" s="159"/>
       <c r="J70" s="159"/>
       <c r="K70" s="159"/>
       <c r="L70" s="159"/>
     </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:12">
       <c r="H71" s="159"/>
       <c r="I71" s="159"/>
       <c r="J71" s="159"/>
@@ -25499,7 +25465,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -25512,13 +25478,13 @@
     <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:20">
       <c r="F2" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="38.25">
       <c r="B3" s="23" t="s">
         <v>681</v>
       </c>
@@ -25577,7 +25543,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="26.25" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>682</v>
       </c>
@@ -25618,7 +25584,7 @@
       </c>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25664,7 +25630,7 @@
       <c r="O5" s="151"/>
       <c r="P5" s="151"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="B6" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25696,7 +25662,7 @@
       <c r="O6" s="151"/>
       <c r="P6" s="151"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25714,7 +25680,7 @@
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25758,7 +25724,7 @@
       </c>
       <c r="O8" s="151"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25784,7 +25750,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="B10" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25797,7 +25763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25841,7 +25807,7 @@
       </c>
       <c r="O11" s="151"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25867,7 +25833,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25880,7 +25846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25924,7 +25890,7 @@
       </c>
       <c r="O14" s="151"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25950,7 +25916,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -25963,7 +25929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23">
       <c r="B17" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26007,7 +25973,7 @@
       </c>
       <c r="O17" s="151"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23">
       <c r="B18" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26033,7 +25999,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23">
       <c r="B19" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26046,7 +26012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23">
       <c r="B20" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26090,7 +26056,7 @@
       </c>
       <c r="O20" s="151"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23">
       <c r="B21" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26116,7 +26082,7 @@
         <v>0.82606124581025031</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23">
       <c r="B22" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26129,7 +26095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23">
       <c r="B23" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26173,7 +26139,7 @@
       </c>
       <c r="O23" s="151"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23">
       <c r="B24" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26199,7 +26165,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23">
       <c r="B25" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26234,7 +26200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23">
       <c r="B26" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26289,7 +26255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23">
       <c r="B27" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26328,7 +26294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23">
       <c r="B28" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26372,7 +26338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23">
       <c r="B29" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26412,7 +26378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23">
       <c r="B30" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26451,7 +26417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23">
       <c r="B31" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26483,7 +26449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23">
       <c r="B32" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26512,7 +26478,7 @@
       </c>
       <c r="S32" s="151"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23">
       <c r="B33" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26551,7 +26517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23">
       <c r="B34" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26565,7 +26531,7 @@
       <c r="R34" s="151"/>
       <c r="S34" s="151"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23">
       <c r="B35" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26610,7 +26576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23">
       <c r="B36" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26634,7 +26600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23">
       <c r="B37" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26663,7 +26629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23">
       <c r="B38" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26688,7 +26654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23">
       <c r="B39" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26712,7 +26678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23">
       <c r="B40" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26736,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23">
       <c r="B41" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26756,7 +26722,7 @@
       </c>
       <c r="S41" s="151"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23">
       <c r="B42" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26780,7 +26746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23">
       <c r="B43" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26795,7 +26761,7 @@
       <c r="R43" s="151"/>
       <c r="S43" s="151"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23">
       <c r="B44" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26840,7 +26806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23">
       <c r="B45" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26864,7 +26830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23">
       <c r="B46" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26893,7 +26859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23">
       <c r="B47" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26918,7 +26884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23">
       <c r="B48" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26942,7 +26908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20">
       <c r="B49" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26966,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20">
       <c r="B50" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -26986,7 +26952,7 @@
       </c>
       <c r="S50" s="151"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20">
       <c r="B51" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27010,7 +26976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20">
       <c r="B52" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27025,7 +26991,7 @@
       <c r="R52" s="151"/>
       <c r="S52" s="151"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20">
       <c r="B53" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27070,7 +27036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20">
       <c r="B54" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27094,7 +27060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20">
       <c r="B55" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27123,7 +27089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20">
       <c r="B56" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27148,7 +27114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20">
       <c r="B57" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27172,7 +27138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20">
       <c r="B58" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27196,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20">
       <c r="B59" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27216,7 +27182,7 @@
       </c>
       <c r="S59" s="151"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20">
       <c r="B60" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27240,7 +27206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20">
       <c r="B61" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27254,7 +27220,7 @@
       <c r="R61" s="151"/>
       <c r="S61" s="151"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20">
       <c r="B62" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27299,7 +27265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20">
       <c r="B63" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27323,7 +27289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20">
       <c r="B64" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27352,7 +27318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20">
       <c r="B65" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27377,7 +27343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20">
       <c r="B66" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27401,7 +27367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20">
       <c r="B67" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27425,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20">
       <c r="B68" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27445,7 +27411,7 @@
       </c>
       <c r="S68" s="151"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20">
       <c r="B69" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27469,7 +27435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20">
       <c r="B70" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27483,7 +27449,7 @@
       <c r="R70" s="151"/>
       <c r="S70" s="151"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20">
       <c r="B71" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27528,7 +27494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20">
       <c r="B72" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27552,7 +27518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20">
       <c r="B73" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27581,7 +27547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20">
       <c r="B74" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27606,7 +27572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20">
       <c r="B75" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27630,7 +27596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20">
       <c r="B76" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27654,7 +27620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20">
       <c r="B77" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27674,7 +27640,7 @@
       </c>
       <c r="S77" s="151"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20">
       <c r="B78" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27698,7 +27664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20">
       <c r="B79" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27712,7 +27678,7 @@
       <c r="R79" s="151"/>
       <c r="S79" s="151"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20">
       <c r="B80" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27757,7 +27723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20">
       <c r="B81" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27781,7 +27747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:20">
       <c r="B82" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27810,7 +27776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20">
       <c r="B83" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27835,7 +27801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:20">
       <c r="B84" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27859,7 +27825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:20">
       <c r="B85" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27883,7 +27849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:20">
       <c r="B86" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27903,7 +27869,7 @@
       </c>
       <c r="S86" s="151"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:20">
       <c r="B87" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27927,7 +27893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:20">
       <c r="B88" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27954,7 +27920,7 @@
       <c r="S88" s="153"/>
       <c r="T88" s="73"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:20">
       <c r="B89" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -27992,7 +27958,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:20">
       <c r="B90" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28016,7 +27982,7 @@
       <c r="M90" s="151"/>
       <c r="N90" s="151"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:20">
       <c r="B91" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28035,7 +28001,7 @@
       <c r="M91" s="151"/>
       <c r="N91" s="151"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:20">
       <c r="B92" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28072,7 +28038,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:20">
       <c r="B93" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28092,7 +28058,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:20">
       <c r="B94" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28105,7 +28071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:20">
       <c r="B95" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28142,7 +28108,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:20">
       <c r="B96" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28162,7 +28128,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20">
       <c r="B97" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28175,7 +28141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20">
       <c r="B98" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28213,7 +28179,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:20">
       <c r="B99" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28234,7 +28200,7 @@
       </c>
       <c r="K99" s="249"/>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20">
       <c r="B100" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28247,7 +28213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:20">
       <c r="B101" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28284,7 +28250,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:20">
       <c r="B102" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28304,7 +28270,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:20">
       <c r="B103" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28317,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20">
       <c r="B104" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28354,7 +28320,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20">
       <c r="B105" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28374,7 +28340,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20">
       <c r="B106" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28387,7 +28353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20">
       <c r="B107" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28424,7 +28390,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:20">
       <c r="B108" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28444,7 +28410,7 @@
         <v>0.8260612458102502</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:20">
       <c r="B109" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28473,7 +28439,7 @@
       <c r="S109" s="73"/>
       <c r="T109" s="73"/>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:20">
       <c r="B110" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28520,7 +28486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:20">
       <c r="B111" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28551,7 +28517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:20">
       <c r="B112" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28584,7 +28550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20">
       <c r="B113" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28613,7 +28579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20">
       <c r="B114" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28641,7 +28607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20">
       <c r="B115" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28669,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20">
       <c r="B116" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28693,7 +28659,7 @@
       </c>
       <c r="S116" s="151"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20">
       <c r="B117" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28721,7 +28687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20">
       <c r="B118" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28734,7 +28700,7 @@
       <c r="R118" s="151"/>
       <c r="S118" s="151"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20">
       <c r="B119" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28779,7 +28745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20">
       <c r="B120" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28803,7 +28769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20">
       <c r="B121" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28832,7 +28798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20">
       <c r="B122" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28857,7 +28823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20">
       <c r="B123" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28881,7 +28847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20">
       <c r="B124" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28905,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:20">
       <c r="B125" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28925,7 +28891,7 @@
       </c>
       <c r="S125" s="151"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:20">
       <c r="B126" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28949,7 +28915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:20">
       <c r="B127" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -28963,7 +28929,7 @@
       <c r="R127" s="151"/>
       <c r="S127" s="151"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:20">
       <c r="B128" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29008,7 +28974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:20">
       <c r="B129" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29032,7 +28998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:20">
       <c r="B130" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29061,7 +29027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:20">
       <c r="B131" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29086,7 +29052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:20">
       <c r="B132" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29110,7 +29076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:20">
       <c r="B133" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29139,7 +29105,7 @@
       </c>
       <c r="S133" s="151"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:20">
       <c r="B134" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29163,7 +29129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:20">
       <c r="B135" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29183,7 +29149,7 @@
       </c>
       <c r="S135" s="151"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:20">
       <c r="B136" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29207,7 +29173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:20">
       <c r="B137" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29221,7 +29187,7 @@
       <c r="R137" s="151"/>
       <c r="S137" s="151"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:20">
       <c r="B138" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29266,7 +29232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:20">
       <c r="B139" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29290,7 +29256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:20">
       <c r="B140" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29319,7 +29285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:20">
       <c r="B141" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29344,7 +29310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:20">
       <c r="B142" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29368,7 +29334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:20">
       <c r="B143" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29388,7 +29354,7 @@
       </c>
       <c r="S143" s="151"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:20">
       <c r="B144" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29412,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:20">
       <c r="B145" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29432,7 +29398,7 @@
       </c>
       <c r="S145" s="151"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:20">
       <c r="B146" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29456,7 +29422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:20">
       <c r="B147" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29470,7 +29436,7 @@
       <c r="R147" s="151"/>
       <c r="S147" s="151"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:20">
       <c r="B148" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29515,7 +29481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:20">
       <c r="B149" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29539,7 +29505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:20">
       <c r="B150" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29568,7 +29534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:20">
       <c r="B151" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29593,7 +29559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:20">
       <c r="B152" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29617,7 +29583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:20">
       <c r="B153" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29646,7 +29612,7 @@
       </c>
       <c r="S153" s="151"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:20">
       <c r="B154" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29670,7 +29636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:20">
       <c r="B155" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29690,7 +29656,7 @@
       </c>
       <c r="S155" s="151"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:20">
       <c r="B156" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29714,7 +29680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:20">
       <c r="B157" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29727,7 +29693,7 @@
       <c r="R157" s="151"/>
       <c r="S157" s="151"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:20">
       <c r="B158" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29772,7 +29738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:20">
       <c r="B159" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29796,7 +29762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:20">
       <c r="B160" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29825,7 +29791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:20">
       <c r="B161" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29850,7 +29816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:20">
       <c r="B162" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29874,7 +29840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:20">
       <c r="B163" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29903,7 +29869,7 @@
       </c>
       <c r="S163" s="151"/>
     </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:20">
       <c r="B164" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29927,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:20">
       <c r="B165" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29947,7 +29913,7 @@
       </c>
       <c r="S165" s="151"/>
     </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:20">
       <c r="B166" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29971,7 +29937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:20">
       <c r="B167" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -29984,7 +29950,7 @@
       <c r="R167" s="151"/>
       <c r="S167" s="151"/>
     </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:20">
       <c r="B168" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30029,7 +29995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:20">
       <c r="B169" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30053,7 +30019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:20">
       <c r="B170" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30082,7 +30048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:20">
       <c r="B171" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30107,7 +30073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:20">
       <c r="B172" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30131,7 +30097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:20">
       <c r="B173" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30160,7 +30126,7 @@
       </c>
       <c r="S173" s="151"/>
     </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:20">
       <c r="B174" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30184,7 +30150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:20">
       <c r="B175" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30204,7 +30170,7 @@
       </c>
       <c r="S175" s="151"/>
     </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:20">
       <c r="B176" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30228,7 +30194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:20">
       <c r="B177" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -30255,7 +30221,7 @@
       <c r="S177" s="153"/>
       <c r="T177" s="73"/>
     </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:20">
       <c r="L178" s="151"/>
       <c r="M178" s="151"/>
       <c r="N178" s="151"/>
@@ -30265,50 +30231,50 @@
       <c r="R178" s="255"/>
       <c r="S178" s="151"/>
     </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:20">
       <c r="P179" s="252"/>
       <c r="Q179" s="253"/>
       <c r="R179" s="253"/>
       <c r="S179" s="151"/>
     </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:20">
       <c r="P180" s="254"/>
       <c r="Q180" s="254"/>
       <c r="R180" s="254"/>
       <c r="S180" s="254"/>
     </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:20">
       <c r="P181" s="251"/>
       <c r="Q181" s="255"/>
       <c r="R181" s="255"/>
       <c r="S181" s="151"/>
     </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:20">
       <c r="P182" s="252"/>
       <c r="Q182" s="253"/>
       <c r="R182" s="253"/>
       <c r="S182" s="151"/>
     </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:20">
       <c r="P183" s="256"/>
       <c r="Q183" s="252"/>
       <c r="R183" s="252"/>
       <c r="S183" s="151"/>
     </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:20">
       <c r="P184" s="252"/>
       <c r="Q184" s="252"/>
       <c r="R184" s="252"/>
       <c r="S184" s="151"/>
     </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:20">
       <c r="P185" s="253"/>
       <c r="Q185" s="252"/>
       <c r="R185" s="252"/>
       <c r="S185" s="151"/>
       <c r="T185" s="232"/>
     </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:20">
       <c r="Q186" s="151"/>
       <c r="R186" s="151"/>
       <c r="S186" s="151"/>
@@ -30331,7 +30297,7 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="207"/>
     <col min="2" max="2" width="10.7109375" style="207" customWidth="1"/>
@@ -30340,32 +30306,32 @@
     <col min="5" max="16384" width="9.140625" style="207"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" s="242" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="341" t="str">
+      <c r="C4" s="337" t="str">
         <f>Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="D4" s="341" t="str">
+      <c r="D4" s="337" t="str">
         <f>Regions!D3</f>
         <v>National</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="342" t="s">
+    <row r="5" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B5" s="338" t="s">
         <v>153</v>
       </c>
       <c r="C5" s="244"/>
       <c r="D5" s="244"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" s="207" t="str">
         <f>Commodities!D9</f>
         <v>ADCAT</v>
@@ -30379,7 +30345,7 @@
         <v>6113.5778094351645</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" s="207" t="str">
         <f>Commodities!D10</f>
         <v>ANDCAT</v>
@@ -30393,7 +30359,7 @@
         <v>5.6337454673004519</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8" s="207" t="str">
         <f>Commodities!D11</f>
         <v>ASHE</v>
@@ -30407,7 +30373,7 @@
         <v>5.7317718669729096</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" s="207" t="str">
         <f>Commodities!D12</f>
         <v>APIG</v>
@@ -30421,7 +30387,7 @@
         <v>1.8832586555434965</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" s="207" t="str">
         <f>Commodities!D13</f>
         <v>APOU</v>
@@ -30435,7 +30401,7 @@
         <v>17.825696958943141</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="B11" s="207" t="str">
         <f>Commodities!D14</f>
         <v>AOTH</v>
@@ -30449,7 +30415,7 @@
         <v>0.11699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="B12" s="207" t="str">
         <f>Commodities!D15</f>
         <v>APUL</v>
@@ -30463,7 +30429,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="B13" s="207" t="str">
         <f>Commodities!D16</f>
         <v>APOT</v>
@@ -30477,7 +30443,7 @@
         <v>0.40096958792204757</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4">
       <c r="B14" s="207" t="str">
         <f>Commodities!D17</f>
         <v>ASUG</v>
@@ -30491,7 +30457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4">
       <c r="B15" s="207" t="str">
         <f>Commodities!D18</f>
         <v>ABAR</v>
@@ -30505,7 +30471,7 @@
         <v>1.4092184166471966</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="B16" s="207" t="str">
         <f>Commodities!D19</f>
         <v>AOAT</v>
@@ -30519,7 +30485,7 @@
         <v>0.18969116093398275</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="207" t="str">
         <f>Commodities!D20</f>
         <v>AWHE</v>
@@ -30551,7 +30517,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -30570,7 +30536,7 @@
     <col min="75" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
@@ -30586,10 +30552,10 @@
       <c r="E1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="340" t="s">
+      <c r="F1" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="340" t="s">
+      <c r="G1" s="342" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="27" t="s">
@@ -30664,14 +30630,14 @@
       <c r="BU1" s="29"/>
       <c r="BV1" s="29"/>
     </row>
-    <row r="2" spans="1:74" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" ht="27.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
       <c r="H2" s="149" t="s">
         <v>570</v>
       </c>
@@ -30874,7 +30840,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -31082,7 +31048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74">
       <c r="A4" s="217" t="s">
         <v>72</v>
       </c>
@@ -31304,7 +31270,7 @@
         <v>4227.9498817611584</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74">
       <c r="A5" s="89"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39" t="s">
@@ -31522,7 +31488,7 @@
         <v>1645.4954404425507</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74">
       <c r="A6" s="89"/>
       <c r="B6" s="38" t="s">
         <v>82</v>
@@ -31740,7 +31706,7 @@
         <v>178.05935559899183</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74">
       <c r="A7" s="89"/>
       <c r="B7" s="38" t="s">
         <v>84</v>
@@ -31958,7 +31924,7 @@
         <v>305.89854322270111</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74">
       <c r="A8" s="89"/>
       <c r="B8" s="38" t="s">
         <v>87</v>
@@ -32176,7 +32142,7 @@
         <v>17.747857984196006</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74">
       <c r="A9" s="90"/>
       <c r="B9" s="43" t="s">
         <v>90</v>
@@ -32394,7 +32360,7 @@
         <v>1089.2513518383473</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74">
       <c r="A10" s="217" t="s">
         <v>92</v>
       </c>
@@ -32615,7 +32581,7 @@
         <v>801.30847740525962</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74">
       <c r="A11" s="89"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39" t="s">
@@ -32832,7 +32798,7 @@
         <v>801.30847740525951</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74">
       <c r="A12" s="89"/>
       <c r="B12" s="38" t="s">
         <v>82</v>
@@ -33049,7 +33015,7 @@
         <v>801.3084774052594</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74">
       <c r="A13" s="90"/>
       <c r="B13" s="43" t="s">
         <v>90</v>
@@ -33267,7 +33233,7 @@
         <v>801.3084774052594</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74">
       <c r="A14" s="217" t="s">
         <v>154</v>
       </c>
@@ -33487,7 +33453,7 @@
         <v>369.8485868436631</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74">
       <c r="A15" s="89"/>
       <c r="B15" s="38" t="s">
         <v>157</v>
@@ -33705,7 +33671,7 @@
         <v>1667.2326690041675</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74">
       <c r="A16" s="89"/>
       <c r="B16" s="38" t="s">
         <v>602</v>
@@ -33883,7 +33849,7 @@
       <c r="BU16" s="110"/>
       <c r="BV16" s="111"/>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74">
       <c r="A17" s="89"/>
       <c r="B17" s="38" t="s">
         <v>159</v>
@@ -34101,7 +34067,7 @@
         <v>1170.5339197417854</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74">
       <c r="A18" s="89"/>
       <c r="B18" s="38" t="s">
         <v>160</v>
@@ -34319,7 +34285,7 @@
         <v>1410.7816857035184</v>
       </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74">
       <c r="A19" s="90"/>
       <c r="B19" s="43" t="s">
         <v>161</v>
@@ -34561,7 +34527,7 @@
       <selection pane="topRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="11.28515625" style="9" customWidth="1"/>
@@ -34579,7 +34545,7 @@
     <col min="60" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="19.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
@@ -34672,7 +34638,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="27.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -34823,7 +34789,7 @@
       </c>
       <c r="BG2" s="183"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -34980,7 +34946,7 @@
       </c>
       <c r="BG3" s="184"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59">
       <c r="A4" s="34" t="s">
         <v>72</v>
       </c>
@@ -35157,7 +35123,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59">
       <c r="B5" s="38"/>
       <c r="C5" s="52"/>
       <c r="D5" s="75" t="s">
@@ -35326,7 +35292,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59">
       <c r="B6" s="38"/>
       <c r="C6" s="52"/>
       <c r="D6" s="75" t="s">
@@ -35493,7 +35459,7 @@
       </c>
       <c r="BG6" s="41"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59">
       <c r="B7" s="38"/>
       <c r="C7" s="52"/>
       <c r="D7" s="75" t="s">
@@ -35660,7 +35626,7 @@
       </c>
       <c r="BG7" s="41"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59">
       <c r="B8" s="38"/>
       <c r="C8" s="52" t="s">
         <v>79</v>
@@ -35829,7 +35795,7 @@
       </c>
       <c r="BG8" s="41"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59">
       <c r="B9" s="38" t="s">
         <v>84</v>
       </c>
@@ -35997,7 +35963,7 @@
       </c>
       <c r="BG9" s="86"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59">
       <c r="B10" s="43" t="s">
         <v>87</v>
       </c>
@@ -36167,7 +36133,7 @@
       </c>
       <c r="BG10" s="88"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59">
       <c r="A11" s="217" t="s">
         <v>92</v>
       </c>
@@ -36343,7 +36309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59">
       <c r="A12" s="125"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52" t="s">
@@ -36515,7 +36481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59">
       <c r="A13" s="89"/>
       <c r="B13" s="52" t="s">
         <v>82</v>
@@ -36686,7 +36652,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59">
       <c r="A14" s="89"/>
       <c r="B14" s="52" t="s">
         <v>73</v>
@@ -36860,7 +36826,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59">
       <c r="A15" s="89"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
@@ -37032,7 +36998,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59">
       <c r="A16" s="89"/>
       <c r="B16" s="52" t="s">
         <v>82</v>
@@ -37203,7 +37169,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59">
       <c r="A17" s="90"/>
       <c r="B17" s="57" t="s">
         <v>90</v>
@@ -37376,7 +37342,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59">
       <c r="A18" s="217" t="s">
         <v>379</v>
       </c>
@@ -37548,7 +37514,7 @@
       </c>
       <c r="BG18" s="86"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59">
       <c r="A19" s="89"/>
       <c r="B19" s="38" t="s">
         <v>84</v>
@@ -37717,7 +37683,7 @@
       </c>
       <c r="BG19" s="86"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59">
       <c r="A20" s="90"/>
       <c r="B20" s="43" t="s">
         <v>87</v>
@@ -37908,7 +37874,7 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -37929,7 +37895,7 @@
     <col min="58" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="19.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
@@ -37945,28 +37911,28 @@
       <c r="E1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="340" t="s">
+      <c r="F1" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="340" t="s">
+      <c r="G1" s="342" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="340" t="s">
+      <c r="H1" s="342" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="340" t="s">
+      <c r="I1" s="342" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="340" t="s">
+      <c r="J1" s="342" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="340" t="s">
+      <c r="K1" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="342" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="340" t="s">
+      <c r="M1" s="342" t="s">
         <v>431</v>
       </c>
       <c r="N1" s="27" t="s">
@@ -38022,20 +37988,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="27.75" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
       <c r="N2" s="149" t="s">
         <v>570</v>
       </c>
@@ -38167,7 +38133,7 @@
       </c>
       <c r="BE2" s="183"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -38320,7 +38286,7 @@
       </c>
       <c r="BE3" s="184"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57">
       <c r="A4" s="34" t="s">
         <v>154</v>
       </c>
@@ -38485,7 +38451,7 @@
       </c>
       <c r="BE4" s="36"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57">
       <c r="A5" s="52"/>
       <c r="B5" s="38"/>
       <c r="C5" s="52" t="s">
@@ -38645,7 +38611,7 @@
       </c>
       <c r="BE5" s="41"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57">
       <c r="A6" s="52"/>
       <c r="B6" s="38"/>
       <c r="C6" s="52" t="s">
@@ -38805,7 +38771,7 @@
       </c>
       <c r="BE6" s="41"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57">
       <c r="B7" s="38"/>
       <c r="C7" s="52" t="s">
         <v>424</v>
@@ -38966,7 +38932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57">
       <c r="B8" s="38"/>
       <c r="C8" s="52" t="s">
         <v>425</v>
@@ -39127,7 +39093,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57">
       <c r="B9" s="38"/>
       <c r="C9" s="52" t="s">
         <v>426</v>
@@ -39288,7 +39254,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57">
       <c r="B10" s="38"/>
       <c r="C10" s="52" t="s">
         <v>427</v>
@@ -39449,7 +39415,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57">
       <c r="A11" s="89"/>
       <c r="B11" s="52"/>
       <c r="C11" s="52" t="s">
@@ -39611,7 +39577,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57">
       <c r="A12" s="89"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52" t="s">
@@ -39773,7 +39739,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57">
       <c r="A13" s="89"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52" t="s">
@@ -39936,7 +39902,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57">
       <c r="A14" s="89"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
@@ -40097,7 +40063,7 @@
       </c>
       <c r="BE14" s="41"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57">
       <c r="A15" s="89"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
@@ -40258,7 +40224,7 @@
       </c>
       <c r="BE15" s="41"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57">
       <c r="A16" s="89"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
@@ -40420,7 +40386,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57">
       <c r="A17" s="89"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
@@ -40582,7 +40548,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57">
       <c r="A18" s="90"/>
       <c r="B18" s="43"/>
       <c r="C18" s="57" t="s">
@@ -40745,7 +40711,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57">
       <c r="A19" s="34" t="s">
         <v>462</v>
       </c>
@@ -40848,7 +40814,7 @@
       <c r="BD19" s="84"/>
       <c r="BE19" s="36"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57">
       <c r="A20" s="52"/>
       <c r="B20" s="38"/>
       <c r="C20" s="52" t="s">
@@ -40948,7 +40914,7 @@
       <c r="BD20" s="160"/>
       <c r="BE20" s="41"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57">
       <c r="A21" s="90"/>
       <c r="B21" s="43"/>
       <c r="C21" s="57" t="s">
@@ -41049,24 +41015,24 @@
       <c r="BD21" s="108"/>
       <c r="BE21" s="148"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57">
       <c r="C22" s="52"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57">
       <c r="A25" s="147"/>
       <c r="B25" s="52"/>
       <c r="AM25" s="9"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57">
       <c r="D26" s="1"/>
       <c r="F26" s="151"/>
       <c r="G26" s="151"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57">
       <c r="H28" s="232"/>
     </row>
-    <row r="30" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" ht="13.5" thickBot="1">
       <c r="H30" s="57" t="s">
         <v>438</v>
       </c>
@@ -41074,13 +41040,13 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" ht="13.5" thickBot="1">
       <c r="H31" s="233"/>
       <c r="I31" s="234"/>
       <c r="J31" s="235"/>
       <c r="K31" s="236"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57">
       <c r="D32" s="117"/>
       <c r="H32" s="9" t="s">
         <v>440</v>
@@ -41089,28 +41055,28 @@
         <v>441</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4">
       <c r="D33" s="117"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4">
       <c r="D34" s="117"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4">
       <c r="D35" s="117"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4">
       <c r="D36" s="117"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4">
       <c r="D37" s="117"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4">
       <c r="D38" s="117"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4">
       <c r="D39" s="117"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4">
       <c r="D40" s="117"/>
     </row>
   </sheetData>
@@ -41141,14 +41107,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49">
       <c r="A1" s="49" t="s">
         <v>48</v>
       </c>
@@ -41205,7 +41171,7 @@
       <c r="AV1" s="50"/>
       <c r="AW1" s="50"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="51" t="s">
@@ -41350,7 +41316,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49">
       <c r="A3" s="52" t="s">
         <v>73</v>
       </c>
@@ -41499,7 +41465,7 @@
         <v>1.4391511243810238</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49">
       <c r="A4" s="52"/>
       <c r="C4" s="55" t="s">
         <v>43</v>
@@ -41643,7 +41609,7 @@
         <v>7440.4113130498927</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49">
       <c r="A5" s="52" t="s">
         <v>73</v>
       </c>
@@ -41792,7 +41758,7 @@
         <v>5.1073521966845812</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49">
       <c r="A6" s="52" t="s">
         <v>82</v>
       </c>
@@ -41939,7 +41905,7 @@
         <v>7.0607234662864489</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49">
       <c r="A7" s="52" t="s">
         <v>84</v>
       </c>
@@ -42086,7 +42052,7 @@
         <v>3.3331107166237381</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49">
       <c r="A8" s="52" t="s">
         <v>87</v>
       </c>
@@ -42233,7 +42199,7 @@
         <v>40.641929722451515</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49">
       <c r="A9" s="57" t="s">
         <v>90</v>
       </c>
@@ -42380,7 +42346,7 @@
         <v>0.11699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49">
       <c r="A10" s="52" t="s">
         <v>154</v>
       </c>
@@ -42529,7 +42495,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49">
       <c r="B11" s="52" t="s">
         <v>157</v>
       </c>
@@ -42675,7 +42641,7 @@
         <v>0.32196810625122874</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49">
       <c r="B12" s="52" t="s">
         <v>158</v>
       </c>
@@ -42821,7 +42787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49">
       <c r="B13" s="52" t="s">
         <v>159</v>
       </c>
@@ -42967,7 +42933,7 @@
         <v>1.4240853402743832</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49">
       <c r="B14" s="52" t="s">
         <v>160</v>
       </c>
@@ -43113,7 +43079,7 @@
         <v>0.17066832275739144</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49">
       <c r="A15" s="73"/>
       <c r="B15" s="57" t="s">
         <v>161</v>
@@ -43260,7 +43226,7 @@
         <v>0.52699339738251516</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="53"/>
@@ -43284,7 +43250,7 @@
       <c r="U16" s="54"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="49" t="s">
         <v>48</v>
       </c>
@@ -43306,7 +43272,7 @@
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="51" t="s">
@@ -43346,7 +43312,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="52" t="s">
         <v>73</v>
       </c>
@@ -43390,7 +43356,7 @@
         <v>1.4431707585204558</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="52"/>
       <c r="C20" s="55" t="s">
         <v>43</v>
@@ -43429,7 +43395,7 @@
         <v>7461.1928215507569</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="52" t="s">
         <v>73</v>
       </c>
@@ -43473,7 +43439,7 @@
         <v>5.112872172161631</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="52" t="s">
         <v>82</v>
       </c>
@@ -43515,7 +43481,7 @@
         <v>7.0128453686079411</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="52" t="s">
         <v>84</v>
       </c>
@@ -43557,7 +43523,7 @@
         <v>3.2879915486967839</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="52" t="s">
         <v>87</v>
       </c>
@@ -43599,7 +43565,7 @@
         <v>39.758525813206923</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="57" t="s">
         <v>90</v>
       </c>
@@ -43641,7 +43607,7 @@
         <v>0.11699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="52" t="s">
         <v>154</v>
       </c>
@@ -43685,7 +43651,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="B27" s="52" t="s">
         <v>157</v>
       </c>
@@ -43726,7 +43692,7 @@
         <v>0.32201115408029662</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="B28" s="52" t="s">
         <v>158</v>
       </c>
@@ -43767,7 +43733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="B29" s="52" t="s">
         <v>159</v>
       </c>
@@ -43808,7 +43774,7 @@
         <v>1.4326050226796128</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="B30" s="52" t="s">
         <v>160</v>
       </c>
@@ -43849,7 +43815,7 @@
         <v>0.17228522204725216</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="73"/>
       <c r="B31" s="57" t="s">
         <v>161</v>
@@ -43908,14 +43874,14 @@
       <selection activeCell="BA39" sqref="BA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="33" max="33" width="8.7109375" customWidth="1"/>
     <col min="34" max="34" width="8.85546875" customWidth="1"/>
     <col min="38" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -43974,7 +43940,7 @@
       <c r="BD1" s="10"/>
       <c r="BE1" s="10"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -44033,7 +43999,7 @@
       <c r="BD2" s="10"/>
       <c r="BE2" s="10"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -44092,7 +44058,7 @@
       <c r="BD3" s="10"/>
       <c r="BE3" s="10"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -44151,7 +44117,7 @@
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -44210,7 +44176,7 @@
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -44269,7 +44235,7 @@
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -44328,7 +44294,7 @@
       <c r="BD7" s="10"/>
       <c r="BE7" s="10"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -44389,7 +44355,7 @@
       <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -44448,7 +44414,7 @@
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -44507,7 +44473,7 @@
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -44566,7 +44532,7 @@
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -44625,7 +44591,7 @@
       <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -44684,7 +44650,7 @@
       <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -44743,7 +44709,7 @@
       <c r="BD14" s="10"/>
       <c r="BE14" s="10"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -44802,7 +44768,7 @@
       <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -44861,7 +44827,7 @@
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
     </row>
-    <row r="17" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -44924,7 +44890,7 @@
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
     </row>
-    <row r="18" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -44987,7 +44953,7 @@
       <c r="BD18" s="10"/>
       <c r="BE18" s="10"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -45046,7 +45012,7 @@
       <c r="BD19" s="10"/>
       <c r="BE19" s="10"/>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -45105,7 +45071,7 @@
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -45164,7 +45130,7 @@
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -45223,7 +45189,7 @@
       <c r="BD22" s="10"/>
       <c r="BE22" s="10"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -45282,7 +45248,7 @@
       <c r="BD23" s="10"/>
       <c r="BE23" s="10"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -45341,7 +45307,7 @@
       <c r="BD24" s="10"/>
       <c r="BE24" s="10"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -45400,7 +45366,7 @@
       <c r="BD25" s="10"/>
       <c r="BE25" s="10"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -45459,7 +45425,7 @@
       <c r="BD26" s="10"/>
       <c r="BE26" s="10"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -45518,7 +45484,7 @@
       <c r="BD27" s="10"/>
       <c r="BE27" s="10"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -45577,7 +45543,7 @@
       <c r="BD28" s="10"/>
       <c r="BE28" s="10"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -45636,7 +45602,7 @@
       <c r="BD29" s="10"/>
       <c r="BE29" s="10"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -45695,7 +45661,7 @@
       <c r="BD30" s="10"/>
       <c r="BE30" s="10"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -45754,7 +45720,7 @@
       <c r="BD31" s="10"/>
       <c r="BE31" s="10"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -45813,7 +45779,7 @@
       <c r="BD32" s="10"/>
       <c r="BE32" s="10"/>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -45872,7 +45838,7 @@
       <c r="BD33" s="10"/>
       <c r="BE33" s="10"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -45931,7 +45897,7 @@
       <c r="BD34" s="10"/>
       <c r="BE34" s="10"/>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -45990,7 +45956,7 @@
       <c r="BD35" s="10"/>
       <c r="BE35" s="10"/>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -46049,7 +46015,7 @@
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -46108,7 +46074,7 @@
       <c r="BD37" s="10"/>
       <c r="BE37" s="10"/>
     </row>
-    <row r="38" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -46171,7 +46137,7 @@
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
     </row>
-    <row r="39" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -46234,7 +46200,7 @@
       <c r="BD39" s="10"/>
       <c r="BE39" s="10"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -46292,7 +46258,7 @@
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -46351,7 +46317,7 @@
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -46410,7 +46376,7 @@
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -46469,7 +46435,7 @@
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -46528,7 +46494,7 @@
       <c r="BD44" s="10"/>
       <c r="BE44" s="10"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -46587,7 +46553,7 @@
       <c r="BD45" s="10"/>
       <c r="BE45" s="10"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -46646,7 +46612,7 @@
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -46705,7 +46671,7 @@
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -46764,7 +46730,7 @@
       <c r="BD48" s="10"/>
       <c r="BE48" s="10"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -46823,7 +46789,7 @@
       <c r="BD49" s="10"/>
       <c r="BE49" s="10"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -46882,7 +46848,7 @@
       <c r="BD50" s="10"/>
       <c r="BE50" s="10"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -46941,7 +46907,7 @@
       <c r="BD51" s="10"/>
       <c r="BE51" s="10"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -47000,7 +46966,7 @@
       <c r="BD52" s="10"/>
       <c r="BE52" s="10"/>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -47059,7 +47025,7 @@
       <c r="BD53" s="10"/>
       <c r="BE53" s="10"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -47118,7 +47084,7 @@
       <c r="BD54" s="10"/>
       <c r="BE54" s="10"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -47177,7 +47143,7 @@
       <c r="BD55" s="10"/>
       <c r="BE55" s="10"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -47236,7 +47202,7 @@
       <c r="BD56" s="10"/>
       <c r="BE56" s="10"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -47295,7 +47261,7 @@
       <c r="BD57" s="10"/>
       <c r="BE57" s="10"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -47354,7 +47320,7 @@
       <c r="BD58" s="10"/>
       <c r="BE58" s="10"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -47413,7 +47379,7 @@
       <c r="BD59" s="10"/>
       <c r="BE59" s="10"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -47472,7 +47438,7 @@
       <c r="BD60" s="10"/>
       <c r="BE60" s="10"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -47531,7 +47497,7 @@
       <c r="BD61" s="10"/>
       <c r="BE61" s="10"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -47590,7 +47556,7 @@
       <c r="BD62" s="10"/>
       <c r="BE62" s="10"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -47649,7 +47615,7 @@
       <c r="BD63" s="10"/>
       <c r="BE63" s="10"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -47708,7 +47674,7 @@
       <c r="BD64" s="10"/>
       <c r="BE64" s="10"/>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -47767,7 +47733,7 @@
       <c r="BD65" s="10"/>
       <c r="BE65" s="10"/>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -47826,7 +47792,7 @@
       <c r="BD66" s="10"/>
       <c r="BE66" s="10"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -47885,7 +47851,7 @@
       <c r="BD67" s="10"/>
       <c r="BE67" s="10"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -47944,7 +47910,7 @@
       <c r="BD68" s="10"/>
       <c r="BE68" s="10"/>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -48003,7 +47969,7 @@
       <c r="BD69" s="10"/>
       <c r="BE69" s="10"/>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -48062,7 +48028,7 @@
       <c r="BD70" s="10"/>
       <c r="BE70" s="10"/>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -48121,7 +48087,7 @@
       <c r="BD71" s="10"/>
       <c r="BE71" s="10"/>
     </row>
-    <row r="72" spans="1:57" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" ht="12" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -48180,7 +48146,7 @@
       <c r="BD72" s="10"/>
       <c r="BE72" s="10"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -48239,7 +48205,7 @@
       <c r="BD73" s="10"/>
       <c r="BE73" s="10"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -48298,7 +48264,7 @@
       <c r="BD74" s="10"/>
       <c r="BE74" s="10"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -48357,7 +48323,7 @@
       <c r="BD75" s="10"/>
       <c r="BE75" s="10"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -48416,7 +48382,7 @@
       <c r="BD76" s="10"/>
       <c r="BE76" s="10"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -48475,7 +48441,7 @@
       <c r="BD77" s="10"/>
       <c r="BE77" s="10"/>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -48534,7 +48500,7 @@
       <c r="BD78" s="10"/>
       <c r="BE78" s="10"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -48593,7 +48559,7 @@
       <c r="BD79" s="10"/>
       <c r="BE79" s="10"/>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -48652,7 +48618,7 @@
       <c r="BD80" s="10"/>
       <c r="BE80" s="10"/>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -48711,7 +48677,7 @@
       <c r="BD81" s="10"/>
       <c r="BE81" s="10"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -48770,7 +48736,7 @@
       <c r="BD82" s="10"/>
       <c r="BE82" s="10"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -48829,7 +48795,7 @@
       <c r="BD83" s="10"/>
       <c r="BE83" s="10"/>
     </row>
-    <row r="84" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -48888,7 +48854,7 @@
       <c r="BD84" s="10"/>
       <c r="BE84" s="10"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -48947,7 +48913,7 @@
       <c r="BD85" s="10"/>
       <c r="BE85" s="10"/>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -49005,7 +48971,7 @@
       <c r="BC86" s="10"/>
       <c r="BD86" s="10"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -49063,7 +49029,7 @@
       <c r="BC87" s="10"/>
       <c r="BD87" s="10"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -49121,7 +49087,7 @@
       <c r="BC88" s="10"/>
       <c r="BD88" s="10"/>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -49179,7 +49145,7 @@
       <c r="BC89" s="10"/>
       <c r="BD89" s="10"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -49237,7 +49203,7 @@
       <c r="BC90" s="10"/>
       <c r="BD90" s="10"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -49295,7 +49261,7 @@
       <c r="BC91" s="10"/>
       <c r="BD91" s="10"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -49353,7 +49319,7 @@
       <c r="BC92" s="10"/>
       <c r="BD92" s="10"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -49411,7 +49377,7 @@
       <c r="BC93" s="10"/>
       <c r="BD93" s="10"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -49469,7 +49435,7 @@
       <c r="BC94" s="10"/>
       <c r="BD94" s="10"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -49527,7 +49493,7 @@
       <c r="BC95" s="10"/>
       <c r="BD95" s="10"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -49585,7 +49551,7 @@
       <c r="BC96" s="10"/>
       <c r="BD96" s="10"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -49643,7 +49609,7 @@
       <c r="BC97" s="10"/>
       <c r="BD97" s="10"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -49701,7 +49667,7 @@
       <c r="BC98" s="10"/>
       <c r="BD98" s="10"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -49759,7 +49725,7 @@
       <c r="BC99" s="10"/>
       <c r="BD99" s="10"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -49817,7 +49783,7 @@
       <c r="BC100" s="10"/>
       <c r="BD100" s="10"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -49876,7 +49842,7 @@
       <c r="BD101" s="10"/>
       <c r="BE101" s="10"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -49935,7 +49901,7 @@
       <c r="BD102" s="10"/>
       <c r="BE102" s="10"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -49994,7 +49960,7 @@
       <c r="BD103" s="10"/>
       <c r="BE103" s="10"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -50053,7 +50019,7 @@
       <c r="BD104" s="10"/>
       <c r="BE104" s="10"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -50112,7 +50078,7 @@
       <c r="BD105" s="10"/>
       <c r="BE105" s="10"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -50171,7 +50137,7 @@
       <c r="BD106" s="10"/>
       <c r="BE106" s="10"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -50230,7 +50196,7 @@
       <c r="BD107" s="10"/>
       <c r="BE107" s="10"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -50289,7 +50255,7 @@
       <c r="BD108" s="10"/>
       <c r="BE108" s="10"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -50348,7 +50314,7 @@
       <c r="BD109" s="10"/>
       <c r="BE109" s="10"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -50407,7 +50373,7 @@
       <c r="BD110" s="10"/>
       <c r="BE110" s="10"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -50466,7 +50432,7 @@
       <c r="BD111" s="10"/>
       <c r="BE111" s="10"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -50525,7 +50491,7 @@
       <c r="BD112" s="10"/>
       <c r="BE112" s="10"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -50584,7 +50550,7 @@
       <c r="BD113" s="10"/>
       <c r="BE113" s="10"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -50643,7 +50609,7 @@
       <c r="BD114" s="10"/>
       <c r="BE114" s="10"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -50702,7 +50668,7 @@
       <c r="BD115" s="10"/>
       <c r="BE115" s="10"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -50761,7 +50727,7 @@
       <c r="BD116" s="10"/>
       <c r="BE116" s="10"/>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -50820,7 +50786,7 @@
       <c r="BD117" s="10"/>
       <c r="BE117" s="10"/>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -50879,7 +50845,7 @@
       <c r="BD118" s="10"/>
       <c r="BE118" s="10"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -50938,7 +50904,7 @@
       <c r="BD119" s="10"/>
       <c r="BE119" s="10"/>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -50997,7 +50963,7 @@
       <c r="BD120" s="10"/>
       <c r="BE120" s="10"/>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -51056,7 +51022,7 @@
       <c r="BD121" s="10"/>
       <c r="BE121" s="10"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -51115,7 +51081,7 @@
       <c r="BD122" s="10"/>
       <c r="BE122" s="10"/>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -51174,7 +51140,7 @@
       <c r="BD123" s="10"/>
       <c r="BE123" s="10"/>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -51233,7 +51199,7 @@
       <c r="BD124" s="10"/>
       <c r="BE124" s="10"/>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -51292,7 +51258,7 @@
       <c r="BD125" s="10"/>
       <c r="BE125" s="10"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -51351,7 +51317,7 @@
       <c r="BD126" s="10"/>
       <c r="BE126" s="10"/>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -51410,7 +51376,7 @@
       <c r="BD127" s="10"/>
       <c r="BE127" s="10"/>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -51469,7 +51435,7 @@
       <c r="BD128" s="10"/>
       <c r="BE128" s="10"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -51528,7 +51494,7 @@
       <c r="BD129" s="10"/>
       <c r="BE129" s="10"/>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -51587,7 +51553,7 @@
       <c r="BD130" s="10"/>
       <c r="BE130" s="10"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -51646,7 +51612,7 @@
       <c r="BD131" s="10"/>
       <c r="BE131" s="10"/>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -51705,7 +51671,7 @@
       <c r="BD132" s="10"/>
       <c r="BE132" s="10"/>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -51764,7 +51730,7 @@
       <c r="BD133" s="10"/>
       <c r="BE133" s="10"/>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -51823,7 +51789,7 @@
       <c r="BD134" s="10"/>
       <c r="BE134" s="10"/>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -51882,7 +51848,7 @@
       <c r="BD135" s="10"/>
       <c r="BE135" s="10"/>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -51941,7 +51907,7 @@
       <c r="BD136" s="10"/>
       <c r="BE136" s="10"/>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -52000,7 +51966,7 @@
       <c r="BD137" s="10"/>
       <c r="BE137" s="10"/>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -52059,7 +52025,7 @@
       <c r="BD138" s="10"/>
       <c r="BE138" s="10"/>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -52118,7 +52084,7 @@
       <c r="BD139" s="10"/>
       <c r="BE139" s="10"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -52177,7 +52143,7 @@
       <c r="BD140" s="10"/>
       <c r="BE140" s="10"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -52236,7 +52202,7 @@
       <c r="BD141" s="10"/>
       <c r="BE141" s="10"/>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -52295,7 +52261,7 @@
       <c r="BD142" s="10"/>
       <c r="BE142" s="10"/>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -52354,7 +52320,7 @@
       <c r="BD143" s="10"/>
       <c r="BE143" s="10"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -52413,7 +52379,7 @@
       <c r="BD144" s="10"/>
       <c r="BE144" s="10"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -52472,7 +52438,7 @@
       <c r="BD145" s="10"/>
       <c r="BE145" s="10"/>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -52531,7 +52497,7 @@
       <c r="BD146" s="10"/>
       <c r="BE146" s="10"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -52590,7 +52556,7 @@
       <c r="BD147" s="10"/>
       <c r="BE147" s="10"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -52649,7 +52615,7 @@
       <c r="BD148" s="10"/>
       <c r="BE148" s="10"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -52708,7 +52674,7 @@
       <c r="BD149" s="10"/>
       <c r="BE149" s="10"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -52767,7 +52733,7 @@
       <c r="BD150" s="10"/>
       <c r="BE150" s="10"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -52826,7 +52792,7 @@
       <c r="BD151" s="10"/>
       <c r="BE151" s="10"/>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -52885,7 +52851,7 @@
       <c r="BD152" s="10"/>
       <c r="BE152" s="10"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -52944,7 +52910,7 @@
       <c r="BD153" s="10"/>
       <c r="BE153" s="10"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -53003,7 +52969,7 @@
       <c r="BD154" s="10"/>
       <c r="BE154" s="10"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -53062,7 +53028,7 @@
       <c r="BD155" s="10"/>
       <c r="BE155" s="10"/>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -53121,7 +53087,7 @@
       <c r="BD156" s="10"/>
       <c r="BE156" s="10"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -53163,7 +53129,7 @@
       <c r="BD157" s="10"/>
       <c r="BE157" s="10"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -53196,7 +53162,7 @@
       <c r="BD158" s="10"/>
       <c r="BE158" s="10"/>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -53229,7 +53195,7 @@
       <c r="BD159" s="10"/>
       <c r="BE159" s="10"/>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -53262,7 +53228,7 @@
       <c r="BD160" s="10"/>
       <c r="BE160" s="10"/>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -53288,7 +53254,7 @@
       <c r="BD161" s="10"/>
       <c r="BE161" s="10"/>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -53314,7 +53280,7 @@
       <c r="BD162" s="10"/>
       <c r="BE162" s="10"/>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -53340,7 +53306,7 @@
       <c r="BD163" s="10"/>
       <c r="BE163" s="10"/>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -53366,7 +53332,7 @@
       <c r="BD164" s="10"/>
       <c r="BE164" s="10"/>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -53392,7 +53358,7 @@
       <c r="BD165" s="10"/>
       <c r="BE165" s="10"/>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57">
       <c r="AN166" s="10"/>
       <c r="AO166" s="10"/>
       <c r="AP166" s="10"/>
@@ -53412,7 +53378,7 @@
       <c r="BD166" s="10"/>
       <c r="BE166" s="10"/>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57">
       <c r="AN167" s="10"/>
       <c r="AO167" s="10"/>
       <c r="AP167" s="10"/>
@@ -53432,7 +53398,7 @@
       <c r="BD167" s="10"/>
       <c r="BE167" s="10"/>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57">
       <c r="AN168" s="10"/>
       <c r="AO168" s="10"/>
       <c r="AP168" s="10"/>
@@ -53452,7 +53418,7 @@
       <c r="BD168" s="10"/>
       <c r="BE168" s="10"/>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57">
       <c r="AN169" s="10"/>
       <c r="AO169" s="10"/>
       <c r="AP169" s="10"/>
@@ -53472,7 +53438,7 @@
       <c r="BD169" s="10"/>
       <c r="BE169" s="10"/>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57">
       <c r="AN170" s="10"/>
       <c r="AO170" s="10"/>
       <c r="AP170" s="10"/>
@@ -53508,7 +53474,7 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -53539,7 +53505,7 @@
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15">
       <c r="C3" s="316" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -53653,12 +53619,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15">
       <c r="A5" t="s">
         <v>678</v>
       </c>
@@ -53773,7 +53739,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" t="s">
         <v>621</v>
       </c>
@@ -53890,7 +53856,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15">
       <c r="A7" t="s">
         <v>620</v>
       </c>
@@ -54007,7 +53973,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="312" t="s">
         <v>623</v>
       </c>
@@ -54015,7 +53981,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="313" t="s">
         <v>625</v>
       </c>
@@ -54023,7 +53989,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="314" t="s">
         <v>627</v>
       </c>
@@ -54031,7 +53997,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="A13" s="314" t="s">
         <v>629</v>
       </c>
@@ -54039,7 +54005,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="A14" s="314" t="s">
         <v>631</v>
       </c>
@@ -54047,7 +54013,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="A15" s="314" t="s">
         <v>633</v>
       </c>
@@ -54055,7 +54021,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30">
       <c r="A16" s="314" t="s">
         <v>635</v>
       </c>
@@ -54063,7 +54029,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="314" t="s">
         <v>637</v>
       </c>
@@ -54071,7 +54037,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="314" t="s">
         <v>639</v>
       </c>
@@ -54079,7 +54045,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="314" t="s">
         <v>641</v>
       </c>
@@ -54087,7 +54053,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="314" t="s">
         <v>643</v>
       </c>
@@ -54095,7 +54061,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="314" t="s">
         <v>645</v>
       </c>
@@ -54103,7 +54069,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="314" t="s">
         <v>647</v>
       </c>
@@ -54111,7 +54077,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="314" t="s">
         <v>649</v>
       </c>
@@ -54119,7 +54085,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="314" t="s">
         <v>651</v>
       </c>
@@ -54127,7 +54093,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="314" t="s">
         <v>653</v>
       </c>
@@ -54135,7 +54101,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="314" t="s">
         <v>655</v>
       </c>
@@ -54143,7 +54109,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="314" t="s">
         <v>657</v>
       </c>
@@ -54151,7 +54117,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="314" t="s">
         <v>659</v>
       </c>
@@ -54159,7 +54125,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="314" t="s">
         <v>661</v>
       </c>
@@ -54167,7 +54133,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="314" t="s">
         <v>663</v>
       </c>
@@ -54175,7 +54141,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="314" t="s">
         <v>665</v>
       </c>
@@ -54183,7 +54149,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="314" t="s">
         <v>667</v>
       </c>
@@ -54191,7 +54157,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="314" t="s">
         <v>669</v>
       </c>
@@ -54199,7 +54165,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="314" t="s">
         <v>671</v>
       </c>
@@ -54207,7 +54173,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="314" t="s">
         <v>673</v>
       </c>
@@ -54215,7 +54181,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="314" t="s">
         <v>675</v>
       </c>
@@ -54223,7 +54189,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15">
       <c r="A37" s="315" t="s">
         <v>677</v>
       </c>
@@ -54275,7 +54241,7 @@
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="207"/>
     <col min="3" max="3" width="9.7109375" style="207" bestFit="1" customWidth="1"/>
@@ -54286,7 +54252,7 @@
     <col min="10" max="16384" width="9.140625" style="207"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="B3" s="185" t="s">
         <v>5</v>
       </c>
@@ -54299,7 +54265,7 @@
       <c r="I3" s="209"/>
       <c r="J3" s="209"/>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15">
       <c r="B4" s="186" t="s">
         <v>4</v>
       </c>
@@ -54328,7 +54294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="216" t="s">
         <v>42</v>
       </c>
@@ -54358,7 +54324,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="209"/>
       <c r="C6" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54385,7 +54351,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54412,7 +54378,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="209"/>
       <c r="C8" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54439,7 +54405,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="209"/>
       <c r="C9" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54466,7 +54432,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="212"/>
       <c r="C10" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54493,7 +54459,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="209"/>
       <c r="C11" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54520,7 +54486,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="209"/>
       <c r="C12" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54547,7 +54513,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="209"/>
       <c r="C13" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54574,7 +54540,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="212"/>
       <c r="C14" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54601,7 +54567,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="209"/>
       <c r="C15" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54629,7 +54595,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="209"/>
       <c r="C16" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54657,7 +54623,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="209" t="s">
         <v>597</v>
       </c>
@@ -54686,7 +54652,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="209"/>
       <c r="C18" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54714,7 +54680,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="209"/>
       <c r="C19" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54742,7 +54708,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="212"/>
       <c r="C20" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54770,7 +54736,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="209" t="s">
         <v>42</v>
       </c>
@@ -54799,7 +54765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="209"/>
       <c r="C22" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54826,7 +54792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="209"/>
       <c r="C23" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54853,7 +54819,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="209"/>
       <c r="C24" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54880,7 +54846,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="209"/>
       <c r="C25" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54907,7 +54873,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="209"/>
       <c r="C26" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54934,7 +54900,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="212"/>
       <c r="C27" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54961,7 +54927,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="209"/>
       <c r="C28" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -54988,7 +54954,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="209"/>
       <c r="C29" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55015,7 +54981,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="209"/>
       <c r="C30" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55042,7 +55008,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31" s="209"/>
       <c r="C31" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55069,7 +55035,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32" s="209"/>
       <c r="C32" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55096,7 +55062,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="B33" s="209"/>
       <c r="C33" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55123,7 +55089,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="212"/>
       <c r="C34" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55150,7 +55116,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="210"/>
       <c r="C35" s="318" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55174,7 +55140,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="209"/>
       <c r="C36" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55198,7 +55164,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="209"/>
       <c r="C37" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55222,7 +55188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="210" t="s">
         <v>15</v>
       </c>
@@ -55248,7 +55214,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="B39" s="212"/>
       <c r="C39" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55272,7 +55238,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10">
       <c r="B40" s="213" t="s">
         <v>42</v>
       </c>
@@ -55298,7 +55264,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="213"/>
       <c r="C41" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55322,7 +55288,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="213"/>
       <c r="C42" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55346,7 +55312,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10">
       <c r="B43" s="213"/>
       <c r="C43" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55370,7 +55336,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10">
       <c r="B44" s="213"/>
       <c r="C44" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55394,7 +55360,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="213"/>
       <c r="C45" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55418,7 +55384,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="213"/>
       <c r="C46" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55442,7 +55408,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="213"/>
       <c r="C47" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55466,7 +55432,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="213"/>
       <c r="C48" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55490,7 +55456,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10">
       <c r="B49" s="213"/>
       <c r="C49" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55514,7 +55480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10">
       <c r="B50" s="213"/>
       <c r="C50" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55538,7 +55504,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10">
       <c r="B51" s="213"/>
       <c r="C51" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55562,7 +55528,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10">
       <c r="B52" s="213"/>
       <c r="C52" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55586,7 +55552,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10">
       <c r="B53" s="214"/>
       <c r="C53" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55610,7 +55576,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="213"/>
       <c r="C54" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55634,7 +55600,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10">
       <c r="B55" s="213"/>
       <c r="C55" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55658,7 +55624,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10">
       <c r="B56" s="213"/>
       <c r="C56" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55682,7 +55648,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10">
       <c r="B57" s="213"/>
       <c r="C57" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55706,7 +55672,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10">
       <c r="B58" s="213"/>
       <c r="C58" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55730,7 +55696,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10">
       <c r="B59" s="213"/>
       <c r="C59" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55754,7 +55720,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10">
       <c r="B60" s="213"/>
       <c r="C60" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55778,7 +55744,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10">
       <c r="B61" s="213"/>
       <c r="C61" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55802,7 +55768,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10">
       <c r="B62" s="213"/>
       <c r="C62" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55826,7 +55792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="213"/>
       <c r="C63" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55850,7 +55816,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10">
       <c r="B64" s="213"/>
       <c r="C64" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55874,7 +55840,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18">
       <c r="B65" s="213"/>
       <c r="C65" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55898,7 +55864,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18">
       <c r="B66" s="213"/>
       <c r="C66" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55922,7 +55888,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18">
       <c r="B67" s="214"/>
       <c r="C67" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -55946,7 +55912,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18">
       <c r="B68" s="213" t="s">
         <v>351</v>
       </c>
@@ -55974,7 +55940,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18">
       <c r="B69" s="213"/>
       <c r="C69" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56000,7 +55966,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18">
       <c r="B70" s="213"/>
       <c r="C70" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56026,7 +55992,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18">
       <c r="B71" s="214"/>
       <c r="C71" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56052,7 +56018,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18">
       <c r="B72" s="216" t="s">
         <v>42</v>
       </c>
@@ -56082,7 +56048,7 @@
       <c r="P72" s="209"/>
       <c r="R72" s="209"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18">
       <c r="B73" s="216"/>
       <c r="C73" s="216" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56109,7 +56075,7 @@
       <c r="P73" s="9"/>
       <c r="R73" s="209"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18">
       <c r="B74" s="216"/>
       <c r="C74" s="216" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56136,7 +56102,7 @@
       <c r="P74" s="9"/>
       <c r="R74" s="209"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18">
       <c r="B75" s="209"/>
       <c r="C75" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56164,7 +56130,7 @@
       <c r="P75" s="209"/>
       <c r="R75" s="209"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18">
       <c r="B76" s="209"/>
       <c r="C76" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56192,7 +56158,7 @@
       <c r="P76" s="209"/>
       <c r="R76" s="209"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18">
       <c r="B77" s="209"/>
       <c r="C77" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56220,7 +56186,7 @@
       <c r="P77" s="209"/>
       <c r="R77" s="209"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18">
       <c r="B78" s="209"/>
       <c r="C78" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56248,7 +56214,7 @@
       <c r="P78" s="209"/>
       <c r="R78" s="209"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18">
       <c r="B79" s="209"/>
       <c r="C79" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56276,7 +56242,7 @@
       <c r="P79" s="209"/>
       <c r="R79" s="209"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18">
       <c r="B80" s="209"/>
       <c r="C80" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56304,7 +56270,7 @@
       <c r="P80" s="209"/>
       <c r="R80" s="209"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18">
       <c r="B81" s="209"/>
       <c r="C81" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56332,7 +56298,7 @@
       <c r="P81" s="209"/>
       <c r="R81" s="209"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18">
       <c r="B82" s="209"/>
       <c r="C82" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56360,7 +56326,7 @@
       <c r="P82" s="209"/>
       <c r="R82" s="209"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18">
       <c r="B83" s="209"/>
       <c r="C83" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56388,7 +56354,7 @@
       <c r="P83" s="209"/>
       <c r="R83" s="209"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:18">
       <c r="B84" s="209"/>
       <c r="C84" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56416,7 +56382,7 @@
       <c r="P84" s="209"/>
       <c r="R84" s="209"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:18">
       <c r="B85" s="209"/>
       <c r="C85" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56444,7 +56410,7 @@
       <c r="P85" s="209"/>
       <c r="R85" s="209"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:18">
       <c r="B86" s="212"/>
       <c r="C86" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56472,7 +56438,7 @@
       <c r="P86" s="209"/>
       <c r="R86" s="209"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:18">
       <c r="B87" s="213"/>
       <c r="C87" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56498,7 +56464,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18">
       <c r="C88" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -56523,7 +56489,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18">
       <c r="C89" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -56561,11 +56527,11 @@
   </sheetPr>
   <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="207"/>
     <col min="3" max="3" width="9.7109375" style="207" bestFit="1" customWidth="1"/>
@@ -56574,7 +56540,7 @@
     <col min="6" max="16384" width="9.140625" style="207"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="208" t="s">
         <v>18</v>
       </c>
@@ -56587,7 +56553,7 @@
       <c r="I3" s="209"/>
       <c r="J3" s="209"/>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15">
       <c r="B4" s="186" t="s">
         <v>118</v>
       </c>
@@ -56616,7 +56582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="210" t="s">
         <v>150</v>
       </c>
@@ -56646,7 +56612,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="209"/>
       <c r="C6" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56668,7 +56634,7 @@
       <c r="I6" s="209"/>
       <c r="J6" s="209"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="209"/>
       <c r="C7" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56690,7 +56656,7 @@
       <c r="I7" s="209"/>
       <c r="J7" s="209"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="212"/>
       <c r="C8" s="212" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56712,7 +56678,7 @@
       <c r="I8" s="212"/>
       <c r="J8" s="212"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="213" t="s">
         <v>241</v>
       </c>
@@ -56734,7 +56700,7 @@
       <c r="I9" s="213"/>
       <c r="J9" s="213"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="213"/>
       <c r="C10" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56754,7 +56720,7 @@
       <c r="I10" s="213"/>
       <c r="J10" s="213"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="213"/>
       <c r="C11" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56774,7 +56740,7 @@
       <c r="I11" s="213"/>
       <c r="J11" s="213"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="213"/>
       <c r="C12" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56794,7 +56760,7 @@
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="213"/>
       <c r="C13" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56814,7 +56780,7 @@
       <c r="I13" s="213"/>
       <c r="J13" s="213"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="214"/>
       <c r="C14" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56834,7 +56800,7 @@
       <c r="I14" s="214"/>
       <c r="J14" s="214"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="213"/>
       <c r="C15" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56854,7 +56820,7 @@
       <c r="I15" s="213"/>
       <c r="J15" s="213"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="213"/>
       <c r="C16" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56874,7 +56840,7 @@
       <c r="I16" s="213"/>
       <c r="J16" s="213"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="213"/>
       <c r="C17" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56894,7 +56860,7 @@
       <c r="I17" s="213"/>
       <c r="J17" s="213"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="213"/>
       <c r="C18" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56914,7 +56880,7 @@
       <c r="I18" s="213"/>
       <c r="J18" s="213"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="213"/>
       <c r="C19" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56934,7 +56900,7 @@
       <c r="I19" s="213"/>
       <c r="J19" s="213"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="214"/>
       <c r="C20" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -56954,7 +56920,7 @@
       <c r="I20" s="214"/>
       <c r="J20" s="214"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="209" t="s">
         <v>150</v>
       </c>
@@ -56978,7 +56944,7 @@
       <c r="I21" s="213"/>
       <c r="J21" s="213"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="209"/>
       <c r="C22" s="209" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57000,7 +56966,7 @@
       <c r="I22" s="213"/>
       <c r="J22" s="213"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="209" t="s">
         <v>119</v>
       </c>
@@ -57024,7 +56990,7 @@
       <c r="I23" s="213"/>
       <c r="J23" s="213"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="213"/>
       <c r="C24" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57046,7 +57012,7 @@
       <c r="I24" s="213"/>
       <c r="J24" s="213"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="213"/>
       <c r="C25" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57068,7 +57034,7 @@
       <c r="I25" s="213"/>
       <c r="J25" s="213"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="213" t="s">
         <v>123</v>
       </c>
@@ -57092,7 +57058,7 @@
       <c r="I26" s="213"/>
       <c r="J26" s="213"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="213"/>
       <c r="C27" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57114,7 +57080,7 @@
       <c r="I27" s="213"/>
       <c r="J27" s="213"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="B28" s="213"/>
       <c r="C28" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57136,7 +57102,7 @@
       <c r="I28" s="213"/>
       <c r="J28" s="213"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="213"/>
       <c r="C29" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57158,7 +57124,7 @@
       <c r="I29" s="213"/>
       <c r="J29" s="213"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30" s="213"/>
       <c r="C30" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57180,7 +57146,7 @@
       <c r="I30" s="213"/>
       <c r="J30" s="213"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31" s="213"/>
       <c r="C31" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57202,7 +57168,7 @@
       <c r="I31" s="213"/>
       <c r="J31" s="213"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32" s="213"/>
       <c r="C32" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57224,7 +57190,7 @@
       <c r="I32" s="213"/>
       <c r="J32" s="213"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="B33" s="213"/>
       <c r="C33" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57246,7 +57212,7 @@
       <c r="I33" s="213"/>
       <c r="J33" s="213"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="213"/>
       <c r="C34" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57268,7 +57234,7 @@
       <c r="I34" s="213"/>
       <c r="J34" s="213"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="213"/>
       <c r="C35" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57290,7 +57256,7 @@
       <c r="I35" s="213"/>
       <c r="J35" s="213"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="213"/>
       <c r="C36" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57312,7 +57278,7 @@
       <c r="I36" s="213"/>
       <c r="J36" s="213"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="213"/>
       <c r="C37" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57334,7 +57300,7 @@
       <c r="I37" s="213"/>
       <c r="J37" s="213"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="213"/>
       <c r="C38" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57356,7 +57322,7 @@
       <c r="I38" s="213"/>
       <c r="J38" s="213"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="B39" s="213"/>
       <c r="C39" s="213" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57378,7 +57344,7 @@
       <c r="I39" s="213"/>
       <c r="J39" s="213"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10">
       <c r="B40" s="214"/>
       <c r="C40" s="214" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57402,7 +57368,7 @@
       <c r="I40" s="214"/>
       <c r="J40" s="214"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="C41" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57416,8 +57382,11 @@
       <c r="F41" s="213" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G41" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="C42" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57431,8 +57400,11 @@
       <c r="F42" s="207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="C43" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57446,8 +57418,11 @@
       <c r="F43" s="207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G43" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="C44" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57461,6 +57436,9 @@
       <c r="F44" s="207" t="s">
         <v>16</v>
       </c>
+      <c r="G44" s="207" t="s">
+        <v>398</v>
+      </c>
       <c r="H44" s="207" t="s">
         <v>360</v>
       </c>
@@ -57468,7 +57446,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="C45" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57482,8 +57460,11 @@
       <c r="F45" s="207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G45" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="C46" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57497,8 +57478,11 @@
       <c r="F46" s="207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G46" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="C47" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57512,11 +57496,14 @@
       <c r="F47" s="207" t="s">
         <v>16</v>
       </c>
+      <c r="G47" s="207" t="s">
+        <v>398</v>
+      </c>
       <c r="H47" s="207" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="C48" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57530,8 +57517,11 @@
       <c r="F48" s="207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G48" s="207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="215"/>
       <c r="C49" s="215" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57546,12 +57536,14 @@
       <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="215"/>
+      <c r="G49" s="215" t="s">
+        <v>398</v>
+      </c>
       <c r="H49" s="215"/>
       <c r="I49" s="215"/>
       <c r="J49" s="215"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10">
       <c r="C50" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57565,11 +57557,14 @@
       <c r="F50" s="207" t="s">
         <v>16</v>
       </c>
+      <c r="G50" s="207" t="s">
+        <v>398</v>
+      </c>
       <c r="H50" s="207" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10">
       <c r="B51" s="215"/>
       <c r="C51" s="215" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57584,14 +57579,16 @@
       <c r="F51" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="215"/>
+      <c r="G51" s="215" t="s">
+        <v>398</v>
+      </c>
       <c r="H51" s="215" t="s">
         <v>569</v>
       </c>
       <c r="I51" s="215"/>
       <c r="J51" s="215"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10">
       <c r="C52" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57606,7 +57603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10">
       <c r="C53" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57621,7 +57618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="215"/>
       <c r="C54" s="215" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -57641,7 +57638,7 @@
       <c r="I54" s="215"/>
       <c r="J54" s="215"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10">
       <c r="B55" s="207" t="s">
         <v>150</v>
       </c>
@@ -57659,7 +57656,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10">
       <c r="C56" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57674,7 +57671,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10">
       <c r="C57" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57689,7 +57686,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10">
       <c r="C58" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57704,7 +57701,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10">
       <c r="C59" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57719,7 +57716,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10">
       <c r="C60" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57734,7 +57731,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10">
       <c r="C61" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57749,7 +57746,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10">
       <c r="C62" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57764,7 +57761,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="C63" s="207" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57791,10 +57788,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="12.42578125" style="302" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="302" bestFit="1" customWidth="1"/>
@@ -57812,7 +57809,7 @@
     <col min="19" max="16384" width="9.140625" style="302"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="299" t="s">
         <v>548</v>
       </c>
@@ -57821,7 +57818,7 @@
       <c r="D1" s="301"/>
       <c r="E1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="E3" s="303" t="s">
         <v>0</v>
       </c>
@@ -57836,7 +57833,7 @@
       <c r="Q3" s="304"/>
       <c r="R3" s="304"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="B4" s="200" t="s">
         <v>681</v>
       </c>
@@ -57882,7 +57879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57929,7 +57926,7 @@
       </c>
       <c r="Q5" s="309"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -57960,7 +57957,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="B7" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58003,7 +58000,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="B8" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58030,7 +58027,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="B9" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58076,7 +58073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="B10" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58108,13 +58105,13 @@
       </c>
       <c r="Q10" s="309"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="C11" s="302" t="str">
-        <f t="shared" ref="B11:C14" si="0">M8</f>
+        <f t="shared" ref="C11:C14" si="0">M8</f>
         <v>FT-AGRDST</v>
       </c>
       <c r="D11" s="302" t="s">
@@ -58151,7 +58148,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58197,7 +58194,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="B13" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58240,7 +58237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58283,13 +58280,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="B15" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
       <c r="C15" s="302" t="str">
-        <f t="shared" ref="B15:C19" si="1">M12</f>
+        <f t="shared" ref="C15:C19" si="1">M12</f>
         <v>FT-AGRHET</v>
       </c>
       <c r="D15" s="319" t="s">
@@ -58327,7 +58324,7 @@
       </c>
       <c r="Q15" s="309"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="B16" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58371,7 +58368,7 @@
       </c>
       <c r="Q16" s="309"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58394,7 +58391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58417,7 +58414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="302" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58440,45 +58437,45 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="D20" s="308"/>
       <c r="F20" s="307"/>
       <c r="G20" s="307"/>
       <c r="H20" s="307"/>
       <c r="I20" s="307"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="D21" s="308"/>
       <c r="F21" s="307"/>
       <c r="G21" s="307"/>
       <c r="H21" s="307"/>
       <c r="I21" s="307"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="D22" s="308"/>
       <c r="F22" s="307"/>
       <c r="G22" s="307"/>
       <c r="H22" s="307"/>
       <c r="I22" s="307"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="D23" s="308"/>
       <c r="F23" s="307"/>
       <c r="G23" s="307"/>
       <c r="H23" s="307"/>
       <c r="I23" s="307"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="D24" s="308"/>
       <c r="F24" s="307"/>
       <c r="G24" s="307"/>
       <c r="H24" s="307"/>
       <c r="I24" s="307"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="D25" s="308"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="D26" s="308"/>
     </row>
   </sheetData>
@@ -58496,7 +58493,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="198" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="198" customWidth="1"/>
@@ -58507,19 +58504,19 @@
     <col min="7" max="16384" width="9.140625" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="B1" s="196" t="s">
         <v>528</v>
       </c>
       <c r="C1" s="197"/>
       <c r="D1" s="197"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3" s="199" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="200" t="s">
         <v>681</v>
       </c>
@@ -58541,7 +58538,7 @@
       <c r="H4" s="202"/>
       <c r="I4" s="202"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58565,7 +58562,7 @@
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58581,7 +58578,7 @@
       <c r="H6" s="205"/>
       <c r="I6" s="205"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58597,7 +58594,7 @@
       <c r="H7" s="205"/>
       <c r="I7" s="205"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58613,7 +58610,7 @@
       <c r="H8" s="205"/>
       <c r="I8" s="205"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58626,7 +58623,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="198" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58639,14 +58636,14 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="C11" s="203"/>
       <c r="D11" s="204"/>
       <c r="E11" s="205"/>
       <c r="F11" s="205"/>
       <c r="G11" s="205"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -58669,7 +58666,7 @@
       <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -58686,12 +58683,12 @@
     <col min="33" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:31">
       <c r="G2" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:31" ht="25.5">
       <c r="B3" s="243" t="s">
         <v>681</v>
       </c>
@@ -58783,7 +58780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="26.25" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>682</v>
       </c>
@@ -58829,7 +58826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:31">
       <c r="B5" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58882,7 +58879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:31">
       <c r="B6" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58928,7 +58925,7 @@
       <c r="AD6" s="151"/>
       <c r="AE6" s="151"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:31">
       <c r="B7" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -58968,7 +58965,7 @@
       <c r="AD7" s="151"/>
       <c r="AE7" s="151"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31">
       <c r="B8" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59034,7 +59031,7 @@
       <c r="AD8" s="151"/>
       <c r="AE8" s="151"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31">
       <c r="B9" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59100,7 +59097,7 @@
       <c r="AD9" s="151"/>
       <c r="AE9" s="151"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31">
       <c r="B10" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59181,7 +59178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31">
       <c r="B11" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59231,7 +59228,7 @@
       <c r="AD11" s="277"/>
       <c r="AE11" s="277"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:31">
       <c r="B12" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59275,7 +59272,7 @@
       <c r="AD12" s="277"/>
       <c r="AE12" s="277"/>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:31">
       <c r="B13" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59345,7 +59342,7 @@
       <c r="AD13" s="277"/>
       <c r="AE13" s="277"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:31">
       <c r="B14" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59415,7 +59412,7 @@
       <c r="AD14" s="277"/>
       <c r="AE14" s="277"/>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:31">
       <c r="B15" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59494,7 +59491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31">
       <c r="B16" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59539,7 +59536,7 @@
       <c r="AD16" s="151"/>
       <c r="AE16" s="151"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31">
       <c r="B17" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59576,7 +59573,7 @@
       <c r="AD17" s="151"/>
       <c r="AE17" s="151"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:31">
       <c r="B18" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59642,7 +59639,7 @@
       <c r="AD18" s="151"/>
       <c r="AE18" s="151"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31">
       <c r="B19" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59708,7 +59705,7 @@
       <c r="AD19" s="151"/>
       <c r="AE19" s="151"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:31">
       <c r="B20" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59768,7 +59765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31">
       <c r="B21" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59812,7 +59809,7 @@
       <c r="AD21" s="277"/>
       <c r="AE21" s="277"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:31">
       <c r="B22" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59882,7 +59879,7 @@
       <c r="AD22" s="277"/>
       <c r="AE22" s="277"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:31">
       <c r="B23" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -59952,7 +59949,7 @@
       <c r="AD23" s="277"/>
       <c r="AE23" s="277"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:31">
       <c r="B24" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60009,7 +60006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:31">
       <c r="B25" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60046,7 +60043,7 @@
       <c r="AD25" s="151"/>
       <c r="AE25" s="151"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:31">
       <c r="B26" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60112,7 +60109,7 @@
       <c r="AD26" s="151"/>
       <c r="AE26" s="151"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:31">
       <c r="B27" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60178,7 +60175,7 @@
       <c r="AD27" s="151"/>
       <c r="AE27" s="151"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:31">
       <c r="B28" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60259,7 +60256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31">
       <c r="B29" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60309,7 +60306,7 @@
       <c r="AD29" s="277"/>
       <c r="AE29" s="277"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31">
       <c r="B30" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60353,7 +60350,7 @@
       <c r="AD30" s="277"/>
       <c r="AE30" s="277"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:31">
       <c r="B31" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60423,7 +60420,7 @@
       <c r="AD31" s="277"/>
       <c r="AE31" s="277"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:31">
       <c r="B32" s="282" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60493,7 +60490,7 @@
       <c r="AD32" s="283"/>
       <c r="AE32" s="283"/>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32">
       <c r="B33" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60545,7 +60542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32">
       <c r="B34" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60585,7 +60582,7 @@
       <c r="AD34" s="151"/>
       <c r="AE34" s="151"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32">
       <c r="B35" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60651,7 +60648,7 @@
       <c r="AD35" s="151"/>
       <c r="AE35" s="151"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:32">
       <c r="B36" s="285" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60705,7 +60702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32">
       <c r="B37" s="285" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60749,7 +60746,7 @@
       <c r="AD37" s="287"/>
       <c r="AE37" s="287"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32">
       <c r="B38" s="285" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60819,7 +60816,7 @@
       <c r="AD38" s="287"/>
       <c r="AE38" s="287"/>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32">
       <c r="B39" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60871,7 +60868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:32">
       <c r="B40" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60911,7 +60908,7 @@
       <c r="AD40" s="151"/>
       <c r="AE40" s="151"/>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32">
       <c r="B41" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -60977,7 +60974,7 @@
       <c r="AD41" s="151"/>
       <c r="AE41" s="151"/>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32">
       <c r="B42" s="285" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -61031,7 +61028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32">
       <c r="B43" s="285" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -61075,7 +61072,7 @@
       <c r="AD43" s="287"/>
       <c r="AE43" s="287"/>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32">
       <c r="B44" s="291" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -61145,7 +61142,7 @@
       <c r="AD44" s="292"/>
       <c r="AE44" s="292"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32">
       <c r="B45" s="294" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -61189,7 +61186,7 @@
       <c r="AE45" s="295"/>
       <c r="AF45" s="9"/>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32">
       <c r="Q46" s="151"/>
       <c r="R46" s="151"/>
       <c r="S46" s="159"/>
@@ -61207,7 +61204,7 @@
       <c r="AE46" s="151"/>
       <c r="AF46" s="9"/>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32">
       <c r="Q47" s="151"/>
       <c r="R47" s="151"/>
       <c r="T47" s="151"/>
@@ -61224,7 +61221,7 @@
       <c r="AE47" s="151"/>
       <c r="AF47" s="9"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32">
       <c r="Q48" s="151"/>
       <c r="R48" s="151"/>
       <c r="T48" s="151"/>
@@ -61241,7 +61238,7 @@
       <c r="AE48" s="151"/>
       <c r="AF48" s="9"/>
     </row>
-    <row r="49" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:32">
       <c r="Q49" s="151"/>
       <c r="R49" s="151"/>
       <c r="T49" s="151"/>
@@ -61258,7 +61255,7 @@
       <c r="AE49" s="151"/>
       <c r="AF49" s="9"/>
     </row>
-    <row r="50" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:32">
       <c r="Q50" s="151"/>
       <c r="R50" s="151"/>
       <c r="S50" s="151"/>
@@ -61276,31 +61273,31 @@
       <c r="AE50" s="151"/>
       <c r="AF50" s="9"/>
     </row>
-    <row r="51" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:32">
       <c r="AF51" s="9"/>
     </row>
-    <row r="52" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:32">
       <c r="AF52" s="9"/>
     </row>
-    <row r="53" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:32">
       <c r="AF53" s="9"/>
     </row>
-    <row r="54" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:32">
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:32">
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:32">
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:32">
       <c r="AF57" s="9"/>
     </row>
-    <row r="59" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:32">
       <c r="AF59" s="9"/>
     </row>
-    <row r="60" spans="12:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:32" ht="15">
       <c r="L60" s="137"/>
       <c r="M60" s="137"/>
       <c r="N60" s="137"/>
@@ -61320,46 +61317,46 @@
       <c r="AC60" s="64"/>
       <c r="AF60" s="9"/>
     </row>
-    <row r="61" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="12:32">
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="12:32">
       <c r="AF62" s="9"/>
     </row>
-    <row r="63" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:32">
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="12:32">
       <c r="AF64" s="9"/>
     </row>
-    <row r="65" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:32">
       <c r="AF65" s="9"/>
     </row>
-    <row r="66" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:32">
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:32">
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:32">
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:32">
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:32">
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:32">
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:32">
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:32">
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:32">
       <c r="H74" s="151"/>
       <c r="I74" s="151"/>
       <c r="J74" s="151"/>
@@ -61386,28 +61383,28 @@
       <c r="AE74" s="151"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:32">
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:32">
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:32">
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:32">
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:32">
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:32">
       <c r="AF80" s="9"/>
     </row>
-    <row r="81" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:32">
       <c r="AF81" s="9"/>
     </row>
-    <row r="82" spans="11:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="11:32" ht="15">
       <c r="K82" s="64"/>
       <c r="L82" s="64"/>
       <c r="M82" s="64"/>
@@ -61428,25 +61425,25 @@
       <c r="AC82" s="64"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:32">
       <c r="AF83" s="9"/>
     </row>
-    <row r="84" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:32">
       <c r="AF84" s="9"/>
     </row>
-    <row r="85" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:32">
       <c r="AF85" s="9"/>
     </row>
-    <row r="86" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="11:32">
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:32">
       <c r="AF87" s="9"/>
     </row>
-    <row r="88" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:32">
       <c r="AF88" s="9"/>
     </row>
-    <row r="89" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="11:32">
       <c r="K89" s="207"/>
       <c r="L89" s="207"/>
       <c r="M89" s="207"/>
@@ -61469,7 +61466,7 @@
       <c r="AD89" s="207"/>
       <c r="AF89" s="9"/>
     </row>
-    <row r="90" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="11:32">
       <c r="K90" s="207"/>
       <c r="L90" s="207"/>
       <c r="M90" s="207"/>
@@ -61492,7 +61489,7 @@
       <c r="AD90" s="207"/>
       <c r="AF90" s="9"/>
     </row>
-    <row r="91" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="11:32">
       <c r="K91" s="207"/>
       <c r="L91" s="207"/>
       <c r="M91" s="207"/>
@@ -61515,7 +61512,7 @@
       <c r="AD91" s="207"/>
       <c r="AF91" s="9"/>
     </row>
-    <row r="92" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:32">
       <c r="K92" s="207"/>
       <c r="L92" s="207"/>
       <c r="M92" s="207"/>
@@ -61538,7 +61535,7 @@
       <c r="AD92" s="207"/>
       <c r="AF92" s="9"/>
     </row>
-    <row r="93" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="11:32">
       <c r="K93" s="207"/>
       <c r="L93" s="207"/>
       <c r="M93" s="207"/>
@@ -61561,7 +61558,7 @@
       <c r="AD93" s="207"/>
       <c r="AF93" s="9"/>
     </row>
-    <row r="94" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="11:32">
       <c r="K94" s="207"/>
       <c r="L94" s="207"/>
       <c r="M94" s="207"/>
@@ -61584,52 +61581,52 @@
       <c r="AD94" s="207"/>
       <c r="AF94" s="9"/>
     </row>
-    <row r="95" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:32">
       <c r="AF95" s="9"/>
     </row>
-    <row r="96" spans="11:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:32">
       <c r="AF96" s="9"/>
     </row>
-    <row r="97" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="32:32">
       <c r="AF97" s="9"/>
     </row>
-    <row r="102" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="32:32">
       <c r="AF102" s="9"/>
     </row>
-    <row r="103" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="32:32">
       <c r="AF103" s="9"/>
     </row>
-    <row r="104" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="32:32">
       <c r="AF104" s="9"/>
     </row>
-    <row r="105" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="32:32">
       <c r="AF105" s="9"/>
     </row>
-    <row r="106" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="32:32">
       <c r="AF106" s="9"/>
     </row>
-    <row r="107" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="32:32">
       <c r="AF107" s="9"/>
     </row>
-    <row r="108" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="32:32">
       <c r="AF108" s="9"/>
     </row>
-    <row r="109" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="32:32">
       <c r="AF109" s="9"/>
     </row>
-    <row r="110" spans="32:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="32:32">
       <c r="AF110" s="9"/>
     </row>
-    <row r="114" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:32">
       <c r="AF114" s="9"/>
     </row>
-    <row r="115" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:32">
       <c r="AF115" s="9"/>
     </row>
-    <row r="117" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:32">
       <c r="AF117" s="9"/>
     </row>
-    <row r="118" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:32">
       <c r="C118" s="9" t="s">
         <v>119</v>
       </c>
@@ -61644,7 +61641,7 @@
       </c>
       <c r="AF118" s="9"/>
     </row>
-    <row r="119" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:32">
       <c r="C119" s="9" t="s">
         <v>123</v>
       </c>
@@ -61659,7 +61656,7 @@
       </c>
       <c r="AF119" s="9"/>
     </row>
-    <row r="120" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:32">
       <c r="D120" s="9" t="s">
         <v>126</v>
       </c>
@@ -61671,7 +61668,7 @@
       </c>
       <c r="AF120" s="9"/>
     </row>
-    <row r="121" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:32">
       <c r="C121" s="9" t="s">
         <v>128</v>
       </c>
@@ -61686,7 +61683,7 @@
       </c>
       <c r="AF121" s="9"/>
     </row>
-    <row r="122" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:32">
       <c r="D122" s="9" t="s">
         <v>131</v>
       </c>
@@ -61698,7 +61695,7 @@
       </c>
       <c r="AF122" s="9"/>
     </row>
-    <row r="123" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:32">
       <c r="D123" s="9" t="s">
         <v>133</v>
       </c>
@@ -61710,7 +61707,7 @@
       </c>
       <c r="AF123" s="9"/>
     </row>
-    <row r="124" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:32">
       <c r="D124" s="9" t="s">
         <v>135</v>
       </c>
@@ -61722,7 +61719,7 @@
       </c>
       <c r="AF124" s="9"/>
     </row>
-    <row r="125" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:32">
       <c r="D125" s="9" t="s">
         <v>137</v>
       </c>
@@ -61734,7 +61731,7 @@
       </c>
       <c r="AF125" s="9"/>
     </row>
-    <row r="126" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:32">
       <c r="C126" s="9" t="s">
         <v>119</v>
       </c>
@@ -61749,7 +61746,7 @@
       </c>
       <c r="AF126" s="9"/>
     </row>
-    <row r="127" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:32">
       <c r="D127" s="9" t="s">
         <v>142</v>
       </c>
@@ -61761,7 +61758,7 @@
       </c>
       <c r="AF127" s="9"/>
     </row>
-    <row r="128" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:32">
       <c r="D128" s="9" t="s">
         <v>144</v>
       </c>
@@ -61773,7 +61770,7 @@
       </c>
       <c r="AF128" s="9"/>
     </row>
-    <row r="129" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:32">
       <c r="D129" s="9" t="s">
         <v>146</v>
       </c>
@@ -61785,7 +61782,7 @@
       </c>
       <c r="AF129" s="9"/>
     </row>
-    <row r="130" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:32">
       <c r="D130" s="9" t="s">
         <v>148</v>
       </c>
@@ -61797,7 +61794,7 @@
       </c>
       <c r="AF130" s="9"/>
     </row>
-    <row r="131" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:32">
       <c r="C131" s="9" t="s">
         <v>150</v>
       </c>
@@ -61831,7 +61828,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -61856,12 +61853,12 @@
     <col min="44" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:43">
       <c r="G2" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="2:43" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:43" ht="25.5">
       <c r="B3" s="23" t="s">
         <v>681</v>
       </c>
@@ -61986,7 +61983,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="2:43" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:43" ht="39" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>682</v>
       </c>
@@ -62053,7 +62050,7 @@
       <c r="AO4" s="5"/>
       <c r="AQ4" s="5"/>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:43">
       <c r="B5" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62126,7 +62123,7 @@
       </c>
       <c r="AQ5" s="6"/>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:43">
       <c r="B6" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62180,7 +62177,7 @@
       <c r="AO6" s="6"/>
       <c r="AQ6" s="6"/>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:43">
       <c r="B7" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62231,7 +62228,7 @@
       <c r="AO7" s="6"/>
       <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:43">
       <c r="B8" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62306,7 +62303,7 @@
       <c r="AO8" s="6"/>
       <c r="AQ8" s="6"/>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:43">
       <c r="B9" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62381,7 +62378,7 @@
       <c r="AO9" s="6"/>
       <c r="AQ9" s="6"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:43">
       <c r="B10" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62455,7 +62452,7 @@
       </c>
       <c r="AQ10" s="18"/>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:43">
       <c r="B11" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62510,7 +62507,7 @@
       <c r="AO11" s="18"/>
       <c r="AQ11" s="18"/>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:43">
       <c r="B12" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62561,7 +62558,7 @@
       <c r="AO12" s="18"/>
       <c r="AQ12" s="18"/>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:43">
       <c r="B13" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62636,7 +62633,7 @@
       <c r="AO13" s="18"/>
       <c r="AQ13" s="18"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:43">
       <c r="B14" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62711,7 +62708,7 @@
       <c r="AO14" s="18"/>
       <c r="AQ14" s="18"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:43">
       <c r="B15" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62782,7 +62779,7 @@
       </c>
       <c r="AQ15" s="6"/>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:43">
       <c r="B16" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62835,7 +62832,7 @@
       <c r="AO16" s="6"/>
       <c r="AQ16" s="6"/>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43">
       <c r="B17" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62886,7 +62883,7 @@
       <c r="AO17" s="6"/>
       <c r="AQ17" s="6"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43">
       <c r="B18" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -62938,7 +62935,7 @@
       <c r="AO18" s="6"/>
       <c r="AQ18" s="6"/>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43">
       <c r="B19" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63013,7 +63010,7 @@
       <c r="AO19" s="6"/>
       <c r="AQ19" s="6"/>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43">
       <c r="B20" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63088,7 +63085,7 @@
       <c r="AO20" s="6"/>
       <c r="AQ20" s="6"/>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43">
       <c r="B21" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63162,7 +63159,7 @@
       </c>
       <c r="AQ21" s="6"/>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43">
       <c r="B22" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63217,7 +63214,7 @@
       <c r="AO22" s="18"/>
       <c r="AQ22" s="6"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43">
       <c r="B23" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63268,7 +63265,7 @@
       <c r="AO23" s="18"/>
       <c r="AQ23" s="6"/>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43">
       <c r="B24" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63320,7 +63317,7 @@
       <c r="AO24" s="18"/>
       <c r="AQ24" s="6"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:43">
       <c r="B25" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63395,7 +63392,7 @@
       <c r="AO25" s="18"/>
       <c r="AQ25" s="6"/>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:43">
       <c r="B26" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63470,7 +63467,7 @@
       <c r="AO26" s="18"/>
       <c r="AQ26" s="6"/>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43">
       <c r="B27" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63564,7 +63561,7 @@
       </c>
       <c r="AQ27" s="18"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:43">
       <c r="B28" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63619,7 +63616,7 @@
       <c r="AO28" s="6"/>
       <c r="AQ28" s="18"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:43">
       <c r="B29" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63670,7 +63667,7 @@
       <c r="AO29" s="6"/>
       <c r="AQ29" s="18"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:43">
       <c r="B30" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63722,7 +63719,7 @@
       <c r="AO30" s="6"/>
       <c r="AQ30" s="18"/>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:43">
       <c r="B31" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63797,7 +63794,7 @@
       <c r="AO31" s="6"/>
       <c r="AQ31" s="18"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:43">
       <c r="B32" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63872,7 +63869,7 @@
       <c r="AO32" s="6"/>
       <c r="AQ32" s="18"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:43">
       <c r="B33" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63945,7 +63942,7 @@
       </c>
       <c r="AQ33" s="6"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:43">
       <c r="B34" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -63996,7 +63993,7 @@
       <c r="AO34" s="18"/>
       <c r="AQ34" s="6"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:43">
       <c r="B35" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64048,7 +64045,7 @@
       <c r="AO35" s="18"/>
       <c r="AQ35" s="6"/>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:43">
       <c r="B36" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64123,7 +64120,7 @@
       <c r="AO36" s="18"/>
       <c r="AQ36" s="6"/>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:43">
       <c r="B37" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64198,7 +64195,7 @@
       <c r="AO37" s="18"/>
       <c r="AQ37" s="6"/>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:43">
       <c r="B38" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64271,7 +64268,7 @@
       </c>
       <c r="AQ38" s="18"/>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:43">
       <c r="B39" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64322,7 +64319,7 @@
       <c r="AO39" s="6"/>
       <c r="AQ39" s="18"/>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:43">
       <c r="B40" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64374,7 +64371,7 @@
       <c r="AO40" s="6"/>
       <c r="AQ40" s="18"/>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:43">
       <c r="B41" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64449,7 +64446,7 @@
       <c r="AO41" s="6"/>
       <c r="AQ41" s="18"/>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:43">
       <c r="B42" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64524,7 +64521,7 @@
       <c r="AO42" s="143"/>
       <c r="AQ42" s="22"/>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:43">
       <c r="B43" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64596,7 +64593,7 @@
       </c>
       <c r="AQ43" s="6"/>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:43">
       <c r="B44" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64645,7 +64642,7 @@
       <c r="AN44" s="6"/>
       <c r="AQ44" s="6"/>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:43">
       <c r="B45" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64719,7 +64716,7 @@
       <c r="AN45" s="6"/>
       <c r="AQ45" s="6"/>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:43">
       <c r="B46" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64791,7 +64788,7 @@
       </c>
       <c r="AQ46" s="133"/>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:43">
       <c r="B47" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64842,7 +64839,7 @@
       <c r="AO47" s="133"/>
       <c r="AQ47" s="133"/>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:43">
       <c r="B48" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64917,7 +64914,7 @@
       <c r="AO48" s="133"/>
       <c r="AQ48" s="133"/>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:43">
       <c r="B49" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -64989,7 +64986,7 @@
       </c>
       <c r="AQ49" s="6"/>
     </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:43">
       <c r="B50" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65040,7 +65037,7 @@
       <c r="AO50" s="6"/>
       <c r="AQ50" s="6"/>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:43">
       <c r="B51" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65115,7 +65112,7 @@
       <c r="AO51" s="6"/>
       <c r="AQ51" s="6"/>
     </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:43">
       <c r="B52" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65187,7 +65184,7 @@
       </c>
       <c r="AQ52" s="6"/>
     </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:43">
       <c r="B53" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65237,7 +65234,7 @@
       <c r="AN53" s="132"/>
       <c r="AO53" s="132"/>
     </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:43">
       <c r="B54" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65311,7 +65308,7 @@
       <c r="AN54" s="132"/>
       <c r="AO54" s="132"/>
     </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:43">
       <c r="B55" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65366,7 +65363,7 @@
       </c>
       <c r="AQ55" s="133"/>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:43">
       <c r="B56" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65386,7 +65383,7 @@
       <c r="AA56" s="6"/>
       <c r="AQ56" s="132"/>
     </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:43">
       <c r="B57" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65438,7 +65435,7 @@
       <c r="AA57" s="6"/>
       <c r="AQ57" s="132"/>
     </row>
-    <row r="58" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:43">
       <c r="B58" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65510,7 +65507,7 @@
       </c>
       <c r="AQ58" s="6"/>
     </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:43">
       <c r="B59" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65560,7 +65557,7 @@
       <c r="AN59" s="132"/>
       <c r="AO59" s="132"/>
     </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:43">
       <c r="B60" s="298" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65634,7 +65631,7 @@
       <c r="AN60" s="132"/>
       <c r="AO60" s="132"/>
     </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:43">
       <c r="B61" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65689,7 +65686,7 @@
       </c>
       <c r="AQ61" s="133"/>
     </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:43">
       <c r="B62" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65709,7 +65706,7 @@
       <c r="AA62" s="6"/>
       <c r="AQ62" s="132"/>
     </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:43">
       <c r="B63" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65784,7 +65781,7 @@
       <c r="AO63" s="14"/>
       <c r="AQ63" s="132"/>
     </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:43">
       <c r="B64" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65847,7 +65844,7 @@
       </c>
       <c r="AQ64" s="16"/>
     </row>
-    <row r="65" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:43">
       <c r="B65" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65909,7 +65906,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="66" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:43">
       <c r="B66" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -65990,7 +65987,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="67" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:43">
       <c r="B67" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66067,7 +66064,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="68" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:43">
       <c r="B68" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66117,7 +66114,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="69" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:43">
       <c r="B69" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66164,7 +66161,7 @@
       <c r="AN69" s="141"/>
       <c r="AO69" s="141"/>
     </row>
-    <row r="70" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:43">
       <c r="B70" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66220,7 +66217,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="71" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:43">
       <c r="B71" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66252,7 +66249,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="72" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:43">
       <c r="B72" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66281,7 +66278,7 @@
       <c r="AN72" s="6"/>
       <c r="AO72" s="6"/>
     </row>
-    <row r="73" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:43">
       <c r="B73" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66368,7 +66365,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:43">
       <c r="B74" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66418,7 +66415,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="75" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:43">
       <c r="B75" s="264" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66465,7 +66462,7 @@
       <c r="AN75" s="141"/>
       <c r="AO75" s="141"/>
     </row>
-    <row r="76" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:43">
       <c r="B76" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66534,7 +66531,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="77" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:43">
       <c r="B77" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66566,7 +66563,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="78" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:43">
       <c r="B78" s="73" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66613,28 +66610,28 @@
       <c r="AN78" s="143"/>
       <c r="AO78" s="143"/>
     </row>
-    <row r="81" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="19:33">
       <c r="AG81" s="158">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="19:33">
       <c r="AC82" s="7"/>
       <c r="AG82" s="158"/>
     </row>
-    <row r="83" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="19:33">
       <c r="AG83" s="158"/>
     </row>
-    <row r="84" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="19:33">
       <c r="AG84" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="19:33">
       <c r="S86" s="138"/>
       <c r="AC86" s="7"/>
     </row>
-    <row r="90" spans="19:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="19:33">
       <c r="AC90" s="7"/>
     </row>
   </sheetData>
@@ -66655,7 +66652,7 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -66671,12 +66668,12 @@
     <col min="26" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24">
       <c r="G2" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="25.5">
       <c r="B3" s="243" t="s">
         <v>681</v>
       </c>
@@ -66747,7 +66744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="26.25" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>682</v>
       </c>
@@ -66786,7 +66783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24">
       <c r="B5" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66828,7 +66825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24">
       <c r="B6" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66866,7 +66863,7 @@
       <c r="W6" s="151"/>
       <c r="X6" s="151"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24">
       <c r="B7" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66923,7 +66920,7 @@
       <c r="W7" s="151"/>
       <c r="X7" s="151"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24">
       <c r="B8" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -66982,7 +66979,7 @@
       <c r="W8" s="151"/>
       <c r="X8" s="151"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24">
       <c r="B9" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67026,7 +67023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24">
       <c r="B10" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67068,7 +67065,7 @@
       <c r="W10" s="277"/>
       <c r="X10" s="277"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24">
       <c r="B11" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67132,7 +67129,7 @@
       <c r="W11" s="277"/>
       <c r="X11" s="277"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24">
       <c r="B12" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67195,7 +67192,7 @@
       <c r="W12" s="277"/>
       <c r="X12" s="277"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24">
       <c r="B13" s="9" t="str">
         <f>Processes!C17</f>
         <v>*</v>
@@ -67237,7 +67234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24">
       <c r="B14" s="9" t="s">
         <v>597</v>
       </c>
@@ -67274,7 +67271,7 @@
       <c r="W14" s="151"/>
       <c r="X14" s="151"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24">
       <c r="B15" s="9" t="s">
         <v>597</v>
       </c>
@@ -67327,7 +67324,7 @@
       <c r="W15" s="151"/>
       <c r="X15" s="151"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24">
       <c r="B16" s="9" t="s">
         <v>597</v>
       </c>
@@ -67355,7 +67352,7 @@
       <c r="W16" s="151"/>
       <c r="X16" s="151"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25">
       <c r="B17" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67399,7 +67396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25">
       <c r="B18" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67441,7 +67438,7 @@
       <c r="W18" s="277"/>
       <c r="X18" s="275"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25">
       <c r="B19" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67505,7 +67502,7 @@
       <c r="W19" s="277"/>
       <c r="X19" s="277"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25">
       <c r="B20" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67568,7 +67565,7 @@
       <c r="W20" s="277"/>
       <c r="X20" s="277"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25">
       <c r="B21" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67610,7 +67607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25">
       <c r="B22" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67647,7 +67644,7 @@
       <c r="V22" s="159"/>
       <c r="W22" s="151"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25">
       <c r="B23" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67704,7 +67701,7 @@
       <c r="W23" s="151"/>
       <c r="X23" s="151"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25">
       <c r="B24" s="9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67763,7 +67760,7 @@
       <c r="W24" s="151"/>
       <c r="X24" s="151"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25">
       <c r="B25" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67807,7 +67804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25">
       <c r="B26" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67849,7 +67846,7 @@
       <c r="W26" s="277"/>
       <c r="X26" s="277"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25">
       <c r="B27" s="275" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67913,7 +67910,7 @@
       <c r="W27" s="277"/>
       <c r="X27" s="277"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25">
       <c r="B28" s="282" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
@@ -67977,7 +67974,7 @@
       <c r="X28" s="283"/>
       <c r="Y28" s="215"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25">
       <c r="H29" s="151"/>
       <c r="I29" s="151"/>
       <c r="J29" s="151"/>
@@ -67996,7 +67993,7 @@
       <c r="W29" s="151"/>
       <c r="X29" s="151"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25">
       <c r="H30" s="151"/>
       <c r="I30" s="151"/>
       <c r="J30" s="151"/>
@@ -68015,7 +68012,7 @@
       <c r="W30" s="151"/>
       <c r="X30" s="151"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25">
       <c r="K31" s="151"/>
       <c r="L31" s="54"/>
       <c r="M31" s="54"/>
